--- a/BackTest/2020-01-16 BackTest APIS.xlsx
+++ b/BackTest/2020-01-16 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5947</v>
+        <v>0.6019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5947</v>
+        <v>0.6019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5947</v>
+        <v>0.6019</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5947</v>
+        <v>0.6019</v>
       </c>
       <c r="F2" t="n">
-        <v>3478880.3634</v>
+        <v>1018.8778</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6005100000000005</v>
+        <v>0.6006966666666672</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5933</v>
+        <v>0.5947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5933</v>
+        <v>0.5947</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5947</v>
       </c>
       <c r="F3" t="n">
-        <v>2130918.0736</v>
+        <v>3478880.3634</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6002933333333339</v>
+        <v>0.6005100000000005</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5956</v>
+        <v>0.5933</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5956</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5956</v>
+        <v>0.5933</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5956</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>1434889.8208</v>
+        <v>2130918.0736</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6001200000000005</v>
+        <v>0.6002933333333339</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5952</v>
+        <v>0.5956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5956</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5952</v>
+        <v>0.5956</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5956</v>
       </c>
       <c r="F5" t="n">
-        <v>4461313.1996</v>
+        <v>1434889.8208</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5999166666666672</v>
+        <v>0.6001200000000005</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6036</v>
+        <v>0.5952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6036</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6036</v>
+        <v>0.5952</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6036</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>836.0245</v>
+        <v>4461313.1996</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5998866666666671</v>
+        <v>0.5999166666666672</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.6036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.6036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.6036</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.6036</v>
       </c>
       <c r="F7" t="n">
-        <v>4302450.8671</v>
+        <v>836.0245</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5997266666666672</v>
+        <v>0.5998866666666671</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6036</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6036</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6036</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6036</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>845.3138</v>
+        <v>4302450.8671</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5996883333333339</v>
+        <v>0.5997266666666672</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5982</v>
+        <v>0.6036</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5982</v>
+        <v>0.6036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5982</v>
+        <v>0.6036</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5982</v>
+        <v>0.6036</v>
       </c>
       <c r="F9" t="n">
-        <v>1073318.651</v>
+        <v>845.3138</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5995683333333338</v>
+        <v>0.5996883333333339</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6036</v>
+        <v>0.5982</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6036</v>
+        <v>0.5982</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6036</v>
+        <v>0.5982</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6036</v>
+        <v>0.5982</v>
       </c>
       <c r="F10" t="n">
-        <v>857.8049</v>
+        <v>1073318.651</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5995350000000005</v>
+        <v>0.5995683333333338</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6027</v>
+        <v>0.6036</v>
       </c>
       <c r="C11" t="n">
         <v>0.6036</v>
@@ -757,13 +757,13 @@
         <v>0.6036</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6027</v>
+        <v>0.6036</v>
       </c>
       <c r="F11" t="n">
-        <v>1066538.3717</v>
+        <v>857.8049</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5995033333333338</v>
+        <v>0.5995350000000005</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6008</v>
+        <v>0.6027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6008</v>
+        <v>0.6036</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6008</v>
+        <v>0.6036</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6008</v>
+        <v>0.6027</v>
       </c>
       <c r="F12" t="n">
-        <v>1826830.3309</v>
+        <v>1066538.3717</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5994200000000004</v>
+        <v>0.5995033333333338</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6008</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6008</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6008</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6008</v>
       </c>
       <c r="F13" t="n">
-        <v>10809.8567</v>
+        <v>1826830.3309</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5993300000000005</v>
+        <v>0.5994200000000004</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6022</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6022</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6022</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6022</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>4403278.984</v>
+        <v>10809.8567</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5992666666666672</v>
+        <v>0.5993300000000005</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.603</v>
+        <v>0.6022</v>
       </c>
       <c r="C15" t="n">
-        <v>0.603</v>
+        <v>0.6022</v>
       </c>
       <c r="D15" t="n">
-        <v>0.603</v>
+        <v>0.6022</v>
       </c>
       <c r="E15" t="n">
-        <v>0.603</v>
+        <v>0.6022</v>
       </c>
       <c r="F15" t="n">
-        <v>1001488.3649</v>
+        <v>4403278.984</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5992150000000006</v>
+        <v>0.5992666666666672</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6002999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6002999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6002999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6002999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="F16" t="n">
-        <v>2800500.6447</v>
+        <v>1001488.3649</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5991900000000006</v>
+        <v>0.5992150000000006</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6036</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6036</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6036</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6036</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>894.8635</v>
+        <v>2800500.6447</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5991500000000005</v>
+        <v>0.5991900000000006</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.601</v>
+        <v>0.6036</v>
       </c>
       <c r="C18" t="n">
-        <v>0.601</v>
+        <v>0.6036</v>
       </c>
       <c r="D18" t="n">
-        <v>0.601</v>
+        <v>0.6036</v>
       </c>
       <c r="E18" t="n">
-        <v>0.601</v>
+        <v>0.6036</v>
       </c>
       <c r="F18" t="n">
-        <v>3208721.359</v>
+        <v>894.8635</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5990616666666673</v>
+        <v>0.5991500000000005</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6036</v>
+        <v>0.601</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6036</v>
+        <v>0.601</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6036</v>
+        <v>0.601</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6036</v>
+        <v>0.601</v>
       </c>
       <c r="F19" t="n">
-        <v>66102.3055</v>
+        <v>3208721.359</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5990366666666672</v>
+        <v>0.5990616666666673</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0.6036</v>
       </c>
       <c r="F20" t="n">
-        <v>24850.89463220676</v>
+        <v>66102.3055</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5991016666666673</v>
+        <v>0.5990366666666672</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6035</v>
+        <v>0.6036</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6035</v>
+        <v>0.6036</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6035</v>
+        <v>0.6036</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6035</v>
+        <v>0.6036</v>
       </c>
       <c r="F21" t="n">
-        <v>2664697.5465</v>
+        <v>24850.89463220676</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5991650000000006</v>
+        <v>0.5991016666666673</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6036</v>
+        <v>0.6035</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6036</v>
+        <v>0.6035</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6036</v>
+        <v>0.6035</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6036</v>
+        <v>0.6035</v>
       </c>
       <c r="F22" t="n">
-        <v>50000</v>
+        <v>2664697.5465</v>
       </c>
       <c r="G22" t="n">
         <v>0.5991650000000006</v>
@@ -1180,10 +1180,10 @@
         <v>0.6036</v>
       </c>
       <c r="F23" t="n">
-        <v>187991.4362</v>
+        <v>50000</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5992633333333338</v>
+        <v>0.5991650000000006</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6026</v>
+        <v>0.6036</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6</v>
+        <v>0.6036</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6026</v>
+        <v>0.6036</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6</v>
+        <v>0.6036</v>
       </c>
       <c r="F24" t="n">
-        <v>3637533.286</v>
+        <v>187991.4362</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5992600000000006</v>
+        <v>0.5992633333333338</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5982</v>
+        <v>0.6026</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5965</v>
+        <v>0.6</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5982</v>
+        <v>0.6026</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5965</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
-        <v>1465648.4618</v>
+        <v>3637533.286</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5993133333333339</v>
+        <v>0.5992600000000006</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5965</v>
+        <v>0.5982</v>
       </c>
       <c r="C26" t="n">
         <v>0.5965</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5965</v>
+        <v>0.5982</v>
       </c>
       <c r="E26" t="n">
         <v>0.5965</v>
       </c>
       <c r="F26" t="n">
-        <v>167064.1306</v>
+        <v>1465648.4618</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5991833333333338</v>
+        <v>0.5993133333333339</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5972</v>
+        <v>0.5965</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5972</v>
+        <v>0.5965</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5972</v>
+        <v>0.5965</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5972</v>
+        <v>0.5965</v>
       </c>
       <c r="F27" t="n">
-        <v>4154478.5258</v>
+        <v>167064.1306</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5992016666666672</v>
+        <v>0.5991833333333338</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6036</v>
+        <v>0.5972</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6036</v>
+        <v>0.5972</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6036</v>
+        <v>0.5972</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6036</v>
+        <v>0.5972</v>
       </c>
       <c r="F28" t="n">
-        <v>851.977</v>
+        <v>4154478.5258</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5991733333333339</v>
+        <v>0.5992016666666672</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6</v>
+        <v>0.6036</v>
       </c>
       <c r="C29" t="n">
         <v>0.6036</v>
@@ -1387,13 +1387,13 @@
         <v>0.6036</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6</v>
+        <v>0.6036</v>
       </c>
       <c r="F29" t="n">
-        <v>2839417.0845</v>
+        <v>851.977</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5993133333333339</v>
+        <v>0.5991733333333339</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6015</v>
+        <v>0.6</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6015</v>
+        <v>0.6036</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6015</v>
+        <v>0.6036</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6015</v>
+        <v>0.6</v>
       </c>
       <c r="F30" t="n">
-        <v>2554851.0254</v>
+        <v>2839417.0845</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5992416666666672</v>
+        <v>0.5993133333333339</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6036</v>
+        <v>0.6015</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6036</v>
+        <v>0.6015</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6036</v>
+        <v>0.6015</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6036</v>
+        <v>0.6015</v>
       </c>
       <c r="F31" t="n">
-        <v>841.2178</v>
+        <v>2554851.0254</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5992050000000005</v>
+        <v>0.5992416666666672</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6036</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6036</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6036</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6036</v>
       </c>
       <c r="F32" t="n">
-        <v>4182325.0718</v>
+        <v>841.2178</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5991466666666672</v>
+        <v>0.5992050000000005</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6036</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6036</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6036</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6036</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>843.624</v>
+        <v>4182325.0718</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5991500000000004</v>
+        <v>0.5991466666666672</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5994</v>
+        <v>0.6036</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5994</v>
+        <v>0.6036</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5994</v>
+        <v>0.6036</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5994</v>
+        <v>0.6036</v>
       </c>
       <c r="F34" t="n">
-        <v>3326492.4087</v>
+        <v>843.624</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5991900000000004</v>
+        <v>0.5991500000000004</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5965</v>
+        <v>0.5994</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5965</v>
+        <v>0.5994</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5965</v>
+        <v>0.5994</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5965</v>
+        <v>0.5994</v>
       </c>
       <c r="F35" t="n">
-        <v>332124.0854</v>
+        <v>3326492.4087</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5990666666666671</v>
+        <v>0.5991900000000004</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6036</v>
+        <v>0.5965</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6036</v>
+        <v>0.5965</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6036</v>
+        <v>0.5965</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6036</v>
+        <v>0.5965</v>
       </c>
       <c r="F36" t="n">
-        <v>916.3473</v>
+        <v>332124.0854</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5992316666666671</v>
+        <v>0.5990666666666671</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.598</v>
+        <v>0.6036</v>
       </c>
       <c r="C37" t="n">
-        <v>0.598</v>
+        <v>0.6036</v>
       </c>
       <c r="D37" t="n">
-        <v>0.598</v>
+        <v>0.6036</v>
       </c>
       <c r="E37" t="n">
-        <v>0.598</v>
+        <v>0.6036</v>
       </c>
       <c r="F37" t="n">
-        <v>4584225.3675</v>
+        <v>916.3473</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5993050000000004</v>
+        <v>0.5992316666666671</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5965</v>
+        <v>0.598</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5965</v>
+        <v>0.598</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5965</v>
+        <v>0.598</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5965</v>
+        <v>0.598</v>
       </c>
       <c r="F38" t="n">
-        <v>1453.9786</v>
+        <v>4584225.3675</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5993583333333337</v>
+        <v>0.5993050000000004</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6036</v>
+        <v>0.5965</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6036</v>
+        <v>0.5965</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6036</v>
+        <v>0.5965</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6036</v>
+        <v>0.5965</v>
       </c>
       <c r="F39" t="n">
-        <v>854.3121</v>
+        <v>1453.9786</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5993633333333338</v>
+        <v>0.5993583333333337</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6028</v>
+        <v>0.6036</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6028</v>
+        <v>0.6036</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6028</v>
+        <v>0.6036</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6028</v>
+        <v>0.6036</v>
       </c>
       <c r="F40" t="n">
-        <v>4138169.8612</v>
+        <v>854.3121</v>
       </c>
       <c r="G40" t="n">
-        <v>0.599416666666667</v>
+        <v>0.5993633333333338</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6036</v>
+        <v>0.6028</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6036</v>
+        <v>0.6028</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6036</v>
+        <v>0.6028</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6036</v>
+        <v>0.6028</v>
       </c>
       <c r="F41" t="n">
-        <v>10000</v>
+        <v>4138169.8612</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5995683333333337</v>
+        <v>0.599416666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5965</v>
+        <v>0.6036</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5965</v>
+        <v>0.6036</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5965</v>
+        <v>0.6036</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5965</v>
+        <v>0.6036</v>
       </c>
       <c r="F42" t="n">
-        <v>19969.4183</v>
+        <v>10000</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5996183333333337</v>
+        <v>0.5995683333333337</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>0.5965</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6015</v>
+        <v>0.5965</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6015</v>
+        <v>0.5965</v>
       </c>
       <c r="E43" t="n">
         <v>0.5965</v>
       </c>
       <c r="F43" t="n">
-        <v>1872875.1669</v>
+        <v>19969.4183</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5997550000000004</v>
+        <v>0.5996183333333337</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5945</v>
+        <v>0.5965</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5945</v>
+        <v>0.6015</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5945</v>
+        <v>0.6015</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5945</v>
+        <v>0.5965</v>
       </c>
       <c r="F44" t="n">
-        <v>1007.1525</v>
+        <v>1872875.1669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5997750000000004</v>
+        <v>0.5997550000000004</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5999</v>
+        <v>0.5945</v>
       </c>
       <c r="C45" t="n">
         <v>0.5945</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5999</v>
+        <v>0.5945</v>
       </c>
       <c r="E45" t="n">
         <v>0.5945</v>
       </c>
       <c r="F45" t="n">
-        <v>1777997.1967</v>
+        <v>1007.1525</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5997550000000003</v>
+        <v>0.5997750000000004</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5965</v>
+        <v>0.5999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5965</v>
+        <v>0.5945</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5965</v>
+        <v>0.5999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5965</v>
+        <v>0.5945</v>
       </c>
       <c r="F46" t="n">
-        <v>2589999.3507</v>
+        <v>1777997.1967</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5998083333333336</v>
+        <v>0.5997550000000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5965</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5965</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5965</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5965</v>
       </c>
       <c r="F47" t="n">
-        <v>4547128.1511</v>
+        <v>2589999.3507</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5998916666666669</v>
+        <v>0.5998083333333336</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6014</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6014</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6014</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6014</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>849.3680000000001</v>
+        <v>4547128.1511</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5998866666666669</v>
+        <v>0.5998916666666669</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5945</v>
+        <v>0.6014</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5945</v>
+        <v>0.6014</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5945</v>
+        <v>0.6014</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5945</v>
+        <v>0.6014</v>
       </c>
       <c r="F49" t="n">
-        <v>901594.4983</v>
+        <v>849.3680000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5998766666666668</v>
+        <v>0.5998866666666669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5941</v>
+        <v>0.5945</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5913</v>
+        <v>0.5945</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5941</v>
+        <v>0.5945</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5913</v>
+        <v>0.5945</v>
       </c>
       <c r="F50" t="n">
-        <v>14477285.0921</v>
+        <v>901594.4983</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5998316666666668</v>
+        <v>0.5998766666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6001</v>
+        <v>0.5941</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6001</v>
+        <v>0.5913</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6001</v>
+        <v>0.5941</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6001</v>
+        <v>0.5913</v>
       </c>
       <c r="F51" t="n">
-        <v>1783758.6996</v>
+        <v>14477285.0921</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5999450000000001</v>
+        <v>0.5998316666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5913</v>
+        <v>0.6001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5913</v>
+        <v>0.6001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5913</v>
+        <v>0.6001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5913</v>
+        <v>0.6001</v>
       </c>
       <c r="F52" t="n">
-        <v>100000</v>
+        <v>1783758.6996</v>
       </c>
       <c r="G52" t="n">
-        <v>0.59975</v>
+        <v>0.5999450000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5914</v>
+        <v>0.5913</v>
       </c>
       <c r="C53" t="n">
         <v>0.5913</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5914</v>
+        <v>0.5913</v>
       </c>
       <c r="E53" t="n">
         <v>0.5913</v>
       </c>
       <c r="F53" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5995433333333332</v>
+        <v>0.59975</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6014</v>
+        <v>0.5914</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6014</v>
+        <v>0.5913</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6014</v>
+        <v>0.5914</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6014</v>
+        <v>0.5913</v>
       </c>
       <c r="F54" t="n">
-        <v>835.7199000000001</v>
+        <v>1000000</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5996799999999998</v>
+        <v>0.5995433333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5984</v>
+        <v>0.6014</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5984</v>
+        <v>0.6014</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5984</v>
+        <v>0.6014</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5984</v>
+        <v>0.6014</v>
       </c>
       <c r="F55" t="n">
-        <v>1408524.6913</v>
+        <v>835.7199000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5996849999999997</v>
+        <v>0.5996799999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.594</v>
+        <v>0.5984</v>
       </c>
       <c r="C56" t="n">
-        <v>0.594</v>
+        <v>0.5984</v>
       </c>
       <c r="D56" t="n">
-        <v>0.594</v>
+        <v>0.5984</v>
       </c>
       <c r="E56" t="n">
-        <v>0.594</v>
+        <v>0.5984</v>
       </c>
       <c r="F56" t="n">
-        <v>4055242.2568</v>
+        <v>1408524.6913</v>
       </c>
       <c r="G56" t="n">
-        <v>0.599553333333333</v>
+        <v>0.5996849999999997</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6014</v>
+        <v>0.594</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6014</v>
+        <v>0.594</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6014</v>
+        <v>0.594</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6014</v>
+        <v>0.594</v>
       </c>
       <c r="F57" t="n">
-        <v>848.8763</v>
+        <v>4055242.2568</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5995699999999997</v>
+        <v>0.599553333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5927</v>
+        <v>0.6014</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5927</v>
+        <v>0.6014</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5927</v>
+        <v>0.6014</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5927</v>
+        <v>0.6014</v>
       </c>
       <c r="F58" t="n">
-        <v>2941291.866</v>
+        <v>848.8763</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5994166666666664</v>
+        <v>0.5995699999999997</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5975</v>
+        <v>0.5927</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5975</v>
+        <v>0.5927</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5975</v>
+        <v>0.5927</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5975</v>
+        <v>0.5927</v>
       </c>
       <c r="F59" t="n">
-        <v>2028200.7166</v>
+        <v>2941291.866</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5993449999999997</v>
+        <v>0.5994166666666664</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5995</v>
+        <v>0.5975</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5995</v>
+        <v>0.5975</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5995</v>
+        <v>0.5975</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5995</v>
+        <v>0.5975</v>
       </c>
       <c r="F60" t="n">
-        <v>3712151.5459</v>
+        <v>2028200.7166</v>
       </c>
       <c r="G60" t="n">
-        <v>0.599308333333333</v>
+        <v>0.5993449999999997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5927</v>
+        <v>0.5995</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5927</v>
+        <v>0.5995</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5927</v>
+        <v>0.5995</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5927</v>
+        <v>0.5995</v>
       </c>
       <c r="F61" t="n">
-        <v>11454.7454</v>
+        <v>3712151.5459</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5991549999999997</v>
+        <v>0.599308333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>0.5927</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5941</v>
+        <v>0.5927</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5941</v>
+        <v>0.5927</v>
       </c>
       <c r="E62" t="n">
         <v>0.5927</v>
       </c>
       <c r="F62" t="n">
-        <v>2343020.643</v>
+        <v>11454.7454</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5991449999999996</v>
+        <v>0.5991549999999997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5941</v>
+        <v>0.5927</v>
       </c>
       <c r="C63" t="n">
         <v>0.5941</v>
@@ -2577,13 +2577,13 @@
         <v>0.5941</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5941</v>
+        <v>0.5927</v>
       </c>
       <c r="F63" t="n">
-        <v>1608.9014</v>
+        <v>2343020.643</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5991599999999995</v>
+        <v>0.5991449999999996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0.5941</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5998</v>
+        <v>0.5941</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5998</v>
+        <v>0.5941</v>
       </c>
       <c r="E64" t="n">
         <v>0.5941</v>
       </c>
       <c r="F64" t="n">
-        <v>1163698.4708</v>
+        <v>1608.9014</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5992299999999996</v>
+        <v>0.5991599999999995</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.598</v>
+        <v>0.5941</v>
       </c>
       <c r="C65" t="n">
-        <v>0.598</v>
+        <v>0.5998</v>
       </c>
       <c r="D65" t="n">
-        <v>0.598</v>
+        <v>0.5998</v>
       </c>
       <c r="E65" t="n">
-        <v>0.598</v>
+        <v>0.5941</v>
       </c>
       <c r="F65" t="n">
-        <v>3278220.2031</v>
+        <v>1163698.4708</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5993099999999995</v>
+        <v>0.5992299999999996</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5998</v>
+        <v>0.598</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5998</v>
+        <v>0.598</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5998</v>
+        <v>0.598</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5998</v>
+        <v>0.598</v>
       </c>
       <c r="F66" t="n">
-        <v>875.5586</v>
+        <v>3278220.2031</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5992466666666662</v>
+        <v>0.5993099999999995</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5979</v>
+        <v>0.5998</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5979</v>
+        <v>0.5998</v>
       </c>
       <c r="F67" t="n">
-        <v>4543156.2247</v>
+        <v>875.5586</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5992833333333328</v>
+        <v>0.5992466666666662</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5927</v>
+        <v>0.5979</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5927</v>
+        <v>0.5985</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5927</v>
+        <v>0.5985</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5927</v>
+        <v>0.5979</v>
       </c>
       <c r="F68" t="n">
-        <v>1621603.6924</v>
+        <v>4543156.2247</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5991016666666662</v>
+        <v>0.5992833333333328</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.598</v>
+        <v>0.5927</v>
       </c>
       <c r="C69" t="n">
-        <v>0.598</v>
+        <v>0.5927</v>
       </c>
       <c r="D69" t="n">
-        <v>0.598</v>
+        <v>0.5927</v>
       </c>
       <c r="E69" t="n">
-        <v>0.598</v>
+        <v>0.5927</v>
       </c>
       <c r="F69" t="n">
-        <v>1092.0274</v>
+        <v>1621603.6924</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5990983333333328</v>
+        <v>0.5991016666666662</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5927</v>
+        <v>0.598</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5927</v>
+        <v>0.598</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5927</v>
+        <v>0.598</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5927</v>
+        <v>0.598</v>
       </c>
       <c r="F70" t="n">
-        <v>2477.8388</v>
+        <v>1092.0274</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5989166666666662</v>
+        <v>0.5990983333333328</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5946</v>
+        <v>0.5927</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5946</v>
+        <v>0.5927</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5946</v>
+        <v>0.5927</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5946</v>
+        <v>0.5927</v>
       </c>
       <c r="F71" t="n">
-        <v>1919685.2707</v>
+        <v>2477.8388</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5987666666666662</v>
+        <v>0.5989166666666662</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,35 +2883,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.598</v>
+        <v>0.5946</v>
       </c>
       <c r="C72" t="n">
-        <v>0.598</v>
+        <v>0.5946</v>
       </c>
       <c r="D72" t="n">
-        <v>0.598</v>
+        <v>0.5946</v>
       </c>
       <c r="E72" t="n">
-        <v>0.598</v>
+        <v>0.5946</v>
       </c>
       <c r="F72" t="n">
-        <v>2476.9347</v>
+        <v>1919685.2707</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5987199999999996</v>
+        <v>0.5987666666666662</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.5946</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
@@ -2922,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5957</v>
+        <v>0.598</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5957</v>
+        <v>0.598</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5957</v>
+        <v>0.598</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5957</v>
+        <v>0.598</v>
       </c>
       <c r="F73" t="n">
-        <v>1405765.7961</v>
+        <v>2476.9347</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5987616666666662</v>
+        <v>0.5987199999999996</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -2946,16 +2942,12 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.598</v>
+        <v>0.5946</v>
       </c>
       <c r="K73" t="n">
         <v>0.5946</v>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2965,32 +2957,30 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.598</v>
+        <v>0.5957</v>
       </c>
       <c r="C74" t="n">
-        <v>0.598</v>
+        <v>0.5957</v>
       </c>
       <c r="D74" t="n">
-        <v>0.598</v>
+        <v>0.5957</v>
       </c>
       <c r="E74" t="n">
-        <v>0.598</v>
+        <v>0.5957</v>
       </c>
       <c r="F74" t="n">
-        <v>1000</v>
+        <v>1405765.7961</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5986916666666661</v>
+        <v>0.5987616666666662</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0.5957</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>0.5946</v>
       </c>
@@ -3008,22 +2998,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5965</v>
+        <v>0.598</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5974</v>
+        <v>0.598</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5974</v>
+        <v>0.598</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5965</v>
+        <v>0.598</v>
       </c>
       <c r="F75" t="n">
-        <v>1542026.759</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5985983333333328</v>
+        <v>0.5986916666666661</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3032,8 +3022,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3043,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5927</v>
+        <v>0.5965</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5836</v>
+        <v>0.5974</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5927</v>
+        <v>0.5974</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5836</v>
+        <v>0.5965</v>
       </c>
       <c r="F76" t="n">
-        <v>7733822.1306</v>
+        <v>1542026.759</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5983199999999994</v>
+        <v>0.5985983333333328</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3078,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5959</v>
+        <v>0.5927</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5959</v>
+        <v>0.5836</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5959</v>
+        <v>0.5927</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5959</v>
+        <v>0.5836</v>
       </c>
       <c r="F77" t="n">
-        <v>1022518.204</v>
+        <v>7733822.1306</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5981916666666661</v>
+        <v>0.5983199999999994</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3116,19 +3112,19 @@
         <v>0.5959</v>
       </c>
       <c r="C78" t="n">
-        <v>0.596</v>
+        <v>0.5959</v>
       </c>
       <c r="D78" t="n">
-        <v>0.596</v>
+        <v>0.5959</v>
       </c>
       <c r="E78" t="n">
         <v>0.5959</v>
       </c>
       <c r="F78" t="n">
-        <v>314011.798</v>
+        <v>1022518.204</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5981083333333327</v>
+        <v>0.5981916666666661</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3148,7 +3144,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.596</v>
+        <v>0.5959</v>
       </c>
       <c r="C79" t="n">
         <v>0.596</v>
@@ -3160,10 +3156,10 @@
         <v>0.5959</v>
       </c>
       <c r="F79" t="n">
-        <v>5447017.5723</v>
+        <v>314011.798</v>
       </c>
       <c r="G79" t="n">
-        <v>0.597981666666666</v>
+        <v>0.5981083333333327</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3192,13 +3188,13 @@
         <v>0.596</v>
       </c>
       <c r="E80" t="n">
-        <v>0.596</v>
+        <v>0.5959</v>
       </c>
       <c r="F80" t="n">
-        <v>146499.0772</v>
+        <v>5447017.5723</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5978549999999992</v>
+        <v>0.597981666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3218,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.597</v>
+        <v>0.596</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5972</v>
+        <v>0.596</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5972</v>
+        <v>0.596</v>
       </c>
       <c r="E81" t="n">
-        <v>0.597</v>
+        <v>0.596</v>
       </c>
       <c r="F81" t="n">
-        <v>3811061.9483</v>
+        <v>146499.0772</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5977499999999993</v>
+        <v>0.5978549999999992</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3253,7 +3249,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5972</v>
+        <v>0.597</v>
       </c>
       <c r="C82" t="n">
         <v>0.5972</v>
@@ -3262,13 +3258,13 @@
         <v>0.5972</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5972</v>
+        <v>0.597</v>
       </c>
       <c r="F82" t="n">
-        <v>962907.7173</v>
+        <v>3811061.9483</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5976433333333326</v>
+        <v>0.5977499999999993</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3288,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.596</v>
+        <v>0.5972</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5961</v>
+        <v>0.5972</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5961</v>
+        <v>0.5972</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5959</v>
+        <v>0.5972</v>
       </c>
       <c r="F83" t="n">
-        <v>4515350.099</v>
+        <v>962907.7173</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5975183333333327</v>
+        <v>0.5976433333333326</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3323,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5959</v>
+        <v>0.5961</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5959</v>
+        <v>0.5961</v>
       </c>
       <c r="E84" t="n">
         <v>0.5959</v>
       </c>
       <c r="F84" t="n">
-        <v>1979117.8763</v>
+        <v>4515350.099</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5974499999999993</v>
+        <v>0.5975183333333327</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3358,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5961</v>
+        <v>0.5959</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5961</v>
+        <v>0.5959</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5961</v>
+        <v>0.5959</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5961</v>
+        <v>0.5959</v>
       </c>
       <c r="F85" t="n">
-        <v>15783.9051</v>
+        <v>1979117.8763</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5974433333333327</v>
+        <v>0.5974499999999993</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3393,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5972</v>
+        <v>0.5961</v>
       </c>
       <c r="C86" t="n">
-        <v>0.596</v>
+        <v>0.5961</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5972</v>
+        <v>0.5961</v>
       </c>
       <c r="E86" t="n">
-        <v>0.596</v>
+        <v>0.5961</v>
       </c>
       <c r="F86" t="n">
-        <v>4609238.7936</v>
+        <v>15783.9051</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5974349999999993</v>
+        <v>0.5974433333333327</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3428,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5959</v>
+        <v>0.5972</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5959</v>
+        <v>0.5972</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="F87" t="n">
-        <v>60539.5063</v>
+        <v>4609238.7936</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5974133333333326</v>
+        <v>0.5974349999999993</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3463,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5959</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5959</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5959</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5959</v>
       </c>
       <c r="F88" t="n">
-        <v>527151.7965000001</v>
+        <v>60539.5063</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5973083333333326</v>
+        <v>0.5974133333333326</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3498,35 +3494,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>1537414.4326</v>
+        <v>527151.7965000001</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5971866666666659</v>
+        <v>0.5973083333333326</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.5973000000000001</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3537,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>16322.0526</v>
+        <v>1537414.4326</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5971166666666659</v>
+        <v>0.5971866666666659</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3561,14 +3553,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3578,40 +3564,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5974</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5974</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5974</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5974</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>282615.1394</v>
+        <v>16322.0526</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5970133333333325</v>
+        <v>0.5971166666666659</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3633,10 +3611,10 @@
         <v>0.5974</v>
       </c>
       <c r="F92" t="n">
-        <v>717384.8606</v>
+        <v>282615.1394</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5969316666666659</v>
+        <v>0.5970133333333325</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3656,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5965</v>
+        <v>0.5974</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5965</v>
+        <v>0.5974</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5965</v>
+        <v>0.5974</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5965</v>
+        <v>0.5974</v>
       </c>
       <c r="F93" t="n">
-        <v>2674108.3528</v>
+        <v>717384.8606</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5968133333333324</v>
+        <v>0.5969316666666659</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3691,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5984</v>
+        <v>0.5965</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5984</v>
+        <v>0.5965</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5984</v>
+        <v>0.5965</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5984</v>
+        <v>0.5965</v>
       </c>
       <c r="F94" t="n">
-        <v>4713434.9661</v>
+        <v>2674108.3528</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5967966666666658</v>
+        <v>0.5968133333333324</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3726,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5959</v>
+        <v>0.5984</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5959</v>
+        <v>0.5984</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5959</v>
+        <v>0.5984</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5959</v>
+        <v>0.5984</v>
       </c>
       <c r="F95" t="n">
-        <v>1000000</v>
+        <v>4713434.9661</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5967866666666658</v>
+        <v>0.5967966666666658</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3761,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.598</v>
+        <v>0.5959</v>
       </c>
       <c r="C96" t="n">
-        <v>0.598</v>
+        <v>0.5959</v>
       </c>
       <c r="D96" t="n">
-        <v>0.598</v>
+        <v>0.5959</v>
       </c>
       <c r="E96" t="n">
-        <v>0.598</v>
+        <v>0.5959</v>
       </c>
       <c r="F96" t="n">
-        <v>4445916.4445</v>
+        <v>1000000</v>
       </c>
       <c r="G96" t="n">
-        <v>0.5966933333333324</v>
+        <v>0.5967866666666658</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3796,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5985</v>
+        <v>0.598</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5985</v>
+        <v>0.598</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5985</v>
+        <v>0.598</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5985</v>
+        <v>0.598</v>
       </c>
       <c r="F97" t="n">
-        <v>866.357</v>
+        <v>4445916.4445</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5967016666666658</v>
+        <v>0.5966933333333324</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3831,7 +3809,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5985</v>
       </c>
       <c r="C98" t="n">
         <v>0.5985</v>
@@ -3840,13 +3818,13 @@
         <v>0.5985</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5985</v>
       </c>
       <c r="F98" t="n">
-        <v>4359808.7666</v>
+        <v>866.357</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5967349999999991</v>
+        <v>0.5967016666666658</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3866,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5985</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>0.5985</v>
@@ -3875,13 +3853,13 @@
         <v>0.5985</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5985</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>1050849.0678</v>
+        <v>4359808.7666</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5966499999999991</v>
+        <v>0.5967349999999991</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3901,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5978</v>
+        <v>0.5985</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5978</v>
+        <v>0.5985</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5978</v>
+        <v>0.5985</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5978</v>
+        <v>0.5985</v>
       </c>
       <c r="F100" t="n">
-        <v>1488368.4025</v>
+        <v>1050849.0678</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5965666666666658</v>
+        <v>0.5966499999999991</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3936,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5959</v>
+        <v>0.5978</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5959</v>
+        <v>0.5978</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5959</v>
+        <v>0.5978</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5959</v>
+        <v>0.5978</v>
       </c>
       <c r="F101" t="n">
-        <v>310000</v>
+        <v>1488368.4025</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5964383333333324</v>
+        <v>0.5965666666666658</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3971,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5985</v>
+        <v>0.5959</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5985</v>
+        <v>0.5959</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5985</v>
+        <v>0.5959</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5985</v>
+        <v>0.5959</v>
       </c>
       <c r="F102" t="n">
-        <v>985.9228000000001</v>
+        <v>310000</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5964716666666658</v>
+        <v>0.5964383333333324</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4006,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5959</v>
+        <v>0.5985</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5959</v>
+        <v>0.5985</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5959</v>
+        <v>0.5985</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5959</v>
+        <v>0.5985</v>
       </c>
       <c r="F103" t="n">
-        <v>350947.9934</v>
+        <v>985.9228000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5963783333333325</v>
+        <v>0.5964716666666658</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4041,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5978</v>
+        <v>0.5959</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5985</v>
+        <v>0.5959</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5985</v>
+        <v>0.5959</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5978</v>
+        <v>0.5959</v>
       </c>
       <c r="F104" t="n">
-        <v>1556322.4254</v>
+        <v>350947.9934</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5964449999999992</v>
+        <v>0.5963783333333325</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4076,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5982</v>
+        <v>0.5978</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5982</v>
+        <v>0.5985</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5982</v>
+        <v>0.5985</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5982</v>
+        <v>0.5978</v>
       </c>
       <c r="F105" t="n">
-        <v>4443646.828</v>
+        <v>1556322.4254</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5965066666666659</v>
+        <v>0.5964449999999992</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4111,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5969</v>
+        <v>0.5982</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5969</v>
+        <v>0.5982</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5969</v>
+        <v>0.5982</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5969</v>
+        <v>0.5982</v>
       </c>
       <c r="F106" t="n">
-        <v>3255059.8407</v>
+        <v>4443646.828</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5965133333333325</v>
+        <v>0.5965066666666659</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4146,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5985</v>
+        <v>0.5969</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5985</v>
+        <v>0.5969</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5985</v>
+        <v>0.5969</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5985</v>
+        <v>0.5969</v>
       </c>
       <c r="F107" t="n">
-        <v>1835.653</v>
+        <v>3255059.8407</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5965166666666658</v>
+        <v>0.5965133333333325</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4181,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5978</v>
+        <v>0.5985</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5978</v>
+        <v>0.5985</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5978</v>
+        <v>0.5985</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5978</v>
+        <v>0.5985</v>
       </c>
       <c r="F108" t="n">
-        <v>2681436.0519</v>
+        <v>1835.653</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5964566666666659</v>
+        <v>0.5965166666666658</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4216,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5985</v>
+        <v>0.5978</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5985</v>
+        <v>0.5978</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5985</v>
+        <v>0.5978</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5985</v>
+        <v>0.5978</v>
       </c>
       <c r="F109" t="n">
-        <v>876.9204</v>
+        <v>2681436.0519</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5965233333333325</v>
+        <v>0.5964566666666659</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4254,19 +4232,19 @@
         <v>0.5985</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6015</v>
+        <v>0.5985</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6015</v>
+        <v>0.5985</v>
       </c>
       <c r="E110" t="n">
         <v>0.5985</v>
       </c>
       <c r="F110" t="n">
-        <v>333155.4742</v>
+        <v>876.9204</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5966933333333326</v>
+        <v>0.5965233333333325</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4295,13 +4273,13 @@
         <v>0.6015</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5979</v>
+        <v>0.5985</v>
       </c>
       <c r="F111" t="n">
-        <v>3775642.3244</v>
+        <v>333155.4742</v>
       </c>
       <c r="G111" t="n">
-        <v>0.596716666666666</v>
+        <v>0.5966933333333326</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4321,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6014</v>
+        <v>0.5985</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6014</v>
+        <v>0.6015</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6014</v>
+        <v>0.6015</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6014</v>
+        <v>0.5979</v>
       </c>
       <c r="F112" t="n">
-        <v>4535817.7884</v>
+        <v>3775642.3244</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5968849999999993</v>
+        <v>0.596716666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4356,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6015</v>
+        <v>0.6014</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6015</v>
+        <v>0.6014</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6015</v>
+        <v>0.6014</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6015</v>
+        <v>0.6014</v>
       </c>
       <c r="F113" t="n">
-        <v>82917.3947</v>
+        <v>4535817.7884</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5970549999999994</v>
+        <v>0.5968849999999993</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4391,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6009</v>
+        <v>0.6015</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6009</v>
+        <v>0.6015</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6009</v>
+        <v>0.6015</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6009</v>
+        <v>0.6015</v>
       </c>
       <c r="F114" t="n">
-        <v>1663257.0985</v>
+        <v>82917.3947</v>
       </c>
       <c r="G114" t="n">
-        <v>0.5970466666666662</v>
+        <v>0.5970549999999994</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4438,16 +4416,16 @@
         <v>0.6009</v>
       </c>
       <c r="F115" t="n">
-        <v>3420483.8338</v>
+        <v>1663257.0985</v>
       </c>
       <c r="G115" t="n">
-        <v>0.597088333333333</v>
+        <v>0.5970466666666662</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4461,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6015</v>
+        <v>0.6009</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6</v>
+        <v>0.6009</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6015</v>
+        <v>0.6009</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6</v>
+        <v>0.6009</v>
       </c>
       <c r="F116" t="n">
-        <v>1082664.9543</v>
+        <v>3420483.8338</v>
       </c>
       <c r="G116" t="n">
-        <v>0.597188333333333</v>
+        <v>0.597088333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4496,28 +4474,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5992</v>
+        <v>0.6015</v>
       </c>
       <c r="C117" t="n">
         <v>0.6</v>
       </c>
       <c r="D117" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.6</v>
       </c>
-      <c r="E117" t="n">
-        <v>0.5992</v>
-      </c>
       <c r="F117" t="n">
-        <v>1755023.8127</v>
+        <v>1082664.9543</v>
       </c>
       <c r="G117" t="n">
-        <v>0.5971649999999997</v>
+        <v>0.597188333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4531,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6015</v>
+        <v>0.5992</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6015</v>
+        <v>0.6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6015</v>
+        <v>0.6</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6015</v>
+        <v>0.5992</v>
       </c>
       <c r="F118" t="n">
-        <v>837.8795</v>
+        <v>1755023.8127</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5973116666666664</v>
+        <v>0.5971649999999997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4566,28 +4544,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5979</v>
+        <v>0.6015</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5979</v>
+        <v>0.6015</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5979</v>
+        <v>0.6015</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5979</v>
+        <v>0.6015</v>
       </c>
       <c r="F119" t="n">
-        <v>812332.3272000001</v>
+        <v>837.8795</v>
       </c>
       <c r="G119" t="n">
-        <v>0.5973183333333332</v>
+        <v>0.5973116666666664</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4601,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.596</v>
+        <v>0.5979</v>
       </c>
       <c r="C120" t="n">
-        <v>0.596</v>
+        <v>0.5979</v>
       </c>
       <c r="D120" t="n">
-        <v>0.596</v>
+        <v>0.5979</v>
       </c>
       <c r="E120" t="n">
-        <v>0.596</v>
+        <v>0.5979</v>
       </c>
       <c r="F120" t="n">
-        <v>493685.6064</v>
+        <v>812332.3272000001</v>
       </c>
       <c r="G120" t="n">
-        <v>0.5972599999999998</v>
+        <v>0.5973183333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4636,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="F121" t="n">
-        <v>833942.7362</v>
+        <v>493685.6064</v>
       </c>
       <c r="G121" t="n">
-        <v>0.597313333333333</v>
+        <v>0.5972599999999998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4671,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5998</v>
+        <v>0.5959</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5998</v>
+        <v>0.5959</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5998</v>
+        <v>0.5959</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5998</v>
+        <v>0.5959</v>
       </c>
       <c r="F122" t="n">
-        <v>3453177.4135</v>
+        <v>833942.7362</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5974083333333332</v>
+        <v>0.597313333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4706,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.596</v>
+        <v>0.5998</v>
       </c>
       <c r="C123" t="n">
-        <v>0.596</v>
+        <v>0.5998</v>
       </c>
       <c r="D123" t="n">
-        <v>0.596</v>
+        <v>0.5998</v>
       </c>
       <c r="E123" t="n">
-        <v>0.596</v>
+        <v>0.5998</v>
       </c>
       <c r="F123" t="n">
-        <v>2301961.0801</v>
+        <v>3453177.4135</v>
       </c>
       <c r="G123" t="n">
-        <v>0.5974399999999999</v>
+        <v>0.5974083333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4741,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="F124" t="n">
-        <v>4085.7241</v>
+        <v>2301961.0801</v>
       </c>
       <c r="G124" t="n">
-        <v>0.5973749999999998</v>
+        <v>0.5974399999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4776,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5959</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5959</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5959</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5959</v>
       </c>
       <c r="F125" t="n">
-        <v>1179220.9731</v>
+        <v>4085.7241</v>
       </c>
       <c r="G125" t="n">
-        <v>0.5974299999999998</v>
+        <v>0.5973749999999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4811,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6015</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5986</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6015</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5986</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>2063161.3145</v>
+        <v>1179220.9731</v>
       </c>
       <c r="G126" t="n">
-        <v>0.5974099999999998</v>
+        <v>0.5974299999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4849,19 +4827,19 @@
         <v>0.6015</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6015</v>
+        <v>0.5986</v>
       </c>
       <c r="D127" t="n">
         <v>0.6015</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6015</v>
+        <v>0.5986</v>
       </c>
       <c r="F127" t="n">
-        <v>843.4731</v>
+        <v>2063161.3145</v>
       </c>
       <c r="G127" t="n">
-        <v>0.5974599999999998</v>
+        <v>0.5974099999999998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4881,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5981</v>
+        <v>0.6015</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5981</v>
+        <v>0.6015</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5981</v>
+        <v>0.6015</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5981</v>
+        <v>0.6015</v>
       </c>
       <c r="F128" t="n">
-        <v>3745815.692</v>
+        <v>843.4731</v>
       </c>
       <c r="G128" t="n">
-        <v>0.5975499999999998</v>
+        <v>0.5974599999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4916,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5998</v>
+        <v>0.5981</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5998</v>
+        <v>0.5981</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5998</v>
+        <v>0.5981</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5998</v>
+        <v>0.5981</v>
       </c>
       <c r="F129" t="n">
-        <v>2238221.2122</v>
+        <v>3745815.692</v>
       </c>
       <c r="G129" t="n">
-        <v>0.5975799999999999</v>
+        <v>0.5975499999999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4951,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.599</v>
+        <v>0.5998</v>
       </c>
       <c r="C130" t="n">
-        <v>0.599</v>
+        <v>0.5998</v>
       </c>
       <c r="D130" t="n">
-        <v>0.599</v>
+        <v>0.5998</v>
       </c>
       <c r="E130" t="n">
-        <v>0.599</v>
+        <v>0.5998</v>
       </c>
       <c r="F130" t="n">
-        <v>3772219.1517</v>
+        <v>2238221.2122</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5976849999999998</v>
+        <v>0.5975799999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4986,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5998</v>
+        <v>0.599</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5998</v>
+        <v>0.599</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5998</v>
+        <v>0.599</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5998</v>
+        <v>0.599</v>
       </c>
       <c r="F131" t="n">
-        <v>848.2827</v>
+        <v>3772219.1517</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5977716666666665</v>
+        <v>0.5976849999999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5021,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5996</v>
+        <v>0.5998</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5996</v>
+        <v>0.5998</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5996</v>
+        <v>0.5998</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5996</v>
+        <v>0.5998</v>
       </c>
       <c r="F132" t="n">
-        <v>4947290.0528</v>
+        <v>848.2827</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5977983333333332</v>
+        <v>0.5977716666666665</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5056,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5959</v>
+        <v>0.5996</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.5996</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5959</v>
+        <v>0.5996</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.5996</v>
       </c>
       <c r="F133" t="n">
-        <v>7789722.2236</v>
+        <v>4947290.0528</v>
       </c>
       <c r="G133" t="n">
-        <v>0.5976066666666665</v>
+        <v>0.5977983333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5091,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5864</v>
+        <v>0.5959</v>
       </c>
       <c r="C134" t="n">
         <v>0.5842000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5997</v>
+        <v>0.5959</v>
       </c>
       <c r="E134" t="n">
         <v>0.5842000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>4569979.6272</v>
+        <v>7789722.2236</v>
       </c>
       <c r="G134" t="n">
-        <v>0.5973766666666667</v>
+        <v>0.5976066666666665</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5126,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5997</v>
+        <v>0.5864</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5997</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="D135" t="n">
         <v>0.5997</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5997</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>855.0393</v>
+        <v>4569979.6272</v>
       </c>
       <c r="G135" t="n">
-        <v>0.5974149999999999</v>
+        <v>0.5973766666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5161,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5855</v>
+        <v>0.5997</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5855</v>
+        <v>0.5997</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5855</v>
+        <v>0.5997</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5855</v>
+        <v>0.5997</v>
       </c>
       <c r="F136" t="n">
-        <v>2183574.0268</v>
+        <v>855.0393</v>
       </c>
       <c r="G136" t="n">
-        <v>0.5974466666666667</v>
+        <v>0.5974149999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5196,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5996</v>
+        <v>0.5855</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5996</v>
+        <v>0.5855</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5996</v>
+        <v>0.5855</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5996</v>
+        <v>0.5855</v>
       </c>
       <c r="F137" t="n">
-        <v>861.5144</v>
+        <v>2183574.0268</v>
       </c>
       <c r="G137" t="n">
-        <v>0.5975083333333334</v>
+        <v>0.5974466666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5231,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5897</v>
+        <v>0.5996</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5897</v>
+        <v>0.5996</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5897</v>
+        <v>0.5996</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5897</v>
+        <v>0.5996</v>
       </c>
       <c r="F138" t="n">
-        <v>3128474.2837</v>
+        <v>861.5144</v>
       </c>
       <c r="G138" t="n">
-        <v>0.5974033333333335</v>
+        <v>0.5975083333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5266,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5994</v>
+        <v>0.5897</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5994</v>
+        <v>0.5897</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5994</v>
+        <v>0.5897</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5994</v>
+        <v>0.5897</v>
       </c>
       <c r="F139" t="n">
-        <v>838.2172</v>
+        <v>3128474.2837</v>
       </c>
       <c r="G139" t="n">
-        <v>0.5974600000000002</v>
+        <v>0.5974033333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5301,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5979</v>
+        <v>0.5994</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5979</v>
+        <v>0.5994</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5979</v>
+        <v>0.5994</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5979</v>
+        <v>0.5994</v>
       </c>
       <c r="F140" t="n">
-        <v>493184.2918</v>
+        <v>838.2172</v>
       </c>
       <c r="G140" t="n">
-        <v>0.597491666666667</v>
+        <v>0.5974600000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5336,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5862000000000001</v>
+        <v>0.5979</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5862000000000001</v>
+        <v>0.5979</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5862000000000001</v>
+        <v>0.5979</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5862000000000001</v>
+        <v>0.5979</v>
       </c>
       <c r="F141" t="n">
-        <v>1562940.3407</v>
+        <v>493184.2918</v>
       </c>
       <c r="G141" t="n">
-        <v>0.5973083333333337</v>
+        <v>0.597491666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5371,22 +5349,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.599</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.599</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.599</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>0.599</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="F142" t="n">
-        <v>841.1766</v>
+        <v>1562940.3407</v>
       </c>
       <c r="G142" t="n">
-        <v>0.5973383333333335</v>
+        <v>0.5973083333333337</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5406,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5911</v>
+        <v>0.599</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5911</v>
+        <v>0.599</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5911</v>
+        <v>0.599</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5911</v>
+        <v>0.599</v>
       </c>
       <c r="F143" t="n">
-        <v>4207153.3091</v>
+        <v>841.1766</v>
       </c>
       <c r="G143" t="n">
-        <v>0.5972550000000002</v>
+        <v>0.5973383333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5441,22 +5419,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5989</v>
+        <v>0.5911</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5989</v>
+        <v>0.5911</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5989</v>
+        <v>0.5911</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5989</v>
+        <v>0.5911</v>
       </c>
       <c r="F144" t="n">
-        <v>866.8827</v>
+        <v>4207153.3091</v>
       </c>
       <c r="G144" t="n">
-        <v>0.5973050000000002</v>
+        <v>0.5972550000000002</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5476,22 +5454,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5978</v>
+        <v>0.5989</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5978</v>
+        <v>0.5989</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5978</v>
+        <v>0.5989</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5978</v>
+        <v>0.5989</v>
       </c>
       <c r="F145" t="n">
-        <v>1177593.6486</v>
+        <v>866.8827</v>
       </c>
       <c r="G145" t="n">
-        <v>0.5973333333333335</v>
+        <v>0.5973050000000002</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5511,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5988</v>
+        <v>0.5978</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5988</v>
+        <v>0.5978</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5988</v>
+        <v>0.5978</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5988</v>
+        <v>0.5978</v>
       </c>
       <c r="F146" t="n">
-        <v>838.8914</v>
+        <v>1177593.6486</v>
       </c>
       <c r="G146" t="n">
-        <v>0.5973800000000001</v>
+        <v>0.5973333333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5546,22 +5524,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.591</v>
+        <v>0.5988</v>
       </c>
       <c r="C147" t="n">
-        <v>0.591</v>
+        <v>0.5988</v>
       </c>
       <c r="D147" t="n">
-        <v>0.591</v>
+        <v>0.5988</v>
       </c>
       <c r="E147" t="n">
-        <v>0.591</v>
+        <v>0.5988</v>
       </c>
       <c r="F147" t="n">
-        <v>2323187.0136</v>
+        <v>838.8914</v>
       </c>
       <c r="G147" t="n">
-        <v>0.5972983333333335</v>
+        <v>0.5973800000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5581,22 +5559,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6015</v>
+        <v>0.591</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6015</v>
+        <v>0.591</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6015</v>
+        <v>0.591</v>
       </c>
       <c r="E148" t="n">
-        <v>0.6015</v>
+        <v>0.591</v>
       </c>
       <c r="F148" t="n">
-        <v>837.5155</v>
+        <v>2323187.0136</v>
       </c>
       <c r="G148" t="n">
-        <v>0.5973683333333336</v>
+        <v>0.5972983333333335</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5616,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5865</v>
+        <v>0.6015</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5845</v>
+        <v>0.6015</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5865</v>
+        <v>0.6015</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5845</v>
+        <v>0.6015</v>
       </c>
       <c r="F149" t="n">
-        <v>223620.278</v>
+        <v>837.5155</v>
       </c>
       <c r="G149" t="n">
-        <v>0.5971716666666669</v>
+        <v>0.5973683333333336</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5651,22 +5629,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.6014</v>
+        <v>0.5865</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6014</v>
+        <v>0.5845</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6014</v>
+        <v>0.5865</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5856</v>
+        <v>0.5845</v>
       </c>
       <c r="F150" t="n">
-        <v>35238.9888</v>
+        <v>223620.278</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5972400000000003</v>
+        <v>0.5971716666666669</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5689,19 +5667,19 @@
         <v>0.6014</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5955</v>
+        <v>0.6014</v>
       </c>
       <c r="D151" t="n">
         <v>0.6014</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5955</v>
+        <v>0.5856</v>
       </c>
       <c r="F151" t="n">
-        <v>2485956.0861</v>
+        <v>35238.9888</v>
       </c>
       <c r="G151" t="n">
-        <v>0.5972083333333337</v>
+        <v>0.5972400000000003</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5721,22 +5699,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.599</v>
+        <v>0.6014</v>
       </c>
       <c r="C152" t="n">
-        <v>0.599</v>
+        <v>0.5955</v>
       </c>
       <c r="D152" t="n">
-        <v>0.599</v>
+        <v>0.6014</v>
       </c>
       <c r="E152" t="n">
-        <v>0.599</v>
+        <v>0.5955</v>
       </c>
       <c r="F152" t="n">
-        <v>1878462.7461</v>
+        <v>2485956.0861</v>
       </c>
       <c r="G152" t="n">
-        <v>0.5972350000000002</v>
+        <v>0.5972083333333337</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5756,31 +5734,35 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6014</v>
+        <v>0.599</v>
       </c>
       <c r="C153" t="n">
-        <v>0.6014</v>
+        <v>0.599</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6014</v>
+        <v>0.599</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6014</v>
+        <v>0.599</v>
       </c>
       <c r="F153" t="n">
-        <v>839.6642000000001</v>
+        <v>1878462.7461</v>
       </c>
       <c r="G153" t="n">
-        <v>0.5973166666666668</v>
+        <v>0.5972350000000002</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.5955</v>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
@@ -5791,22 +5773,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5905</v>
+        <v>0.6014</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5905</v>
+        <v>0.6014</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5905</v>
+        <v>0.6014</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5905</v>
+        <v>0.6014</v>
       </c>
       <c r="F154" t="n">
-        <v>1821112.8563</v>
+        <v>839.6642000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>0.5971850000000002</v>
+        <v>0.5973166666666668</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5815,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5826,22 +5814,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6014</v>
+        <v>0.5905</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6014</v>
+        <v>0.5905</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6014</v>
+        <v>0.5905</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6014</v>
+        <v>0.5905</v>
       </c>
       <c r="F155" t="n">
-        <v>842.0651</v>
+        <v>1821112.8563</v>
       </c>
       <c r="G155" t="n">
-        <v>0.5972766666666669</v>
+        <v>0.5971850000000002</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5850,8 +5838,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5861,22 +5855,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5879</v>
+        <v>0.6014</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5879</v>
+        <v>0.6014</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5879</v>
+        <v>0.6014</v>
       </c>
       <c r="E156" t="n">
-        <v>0.5879</v>
+        <v>0.6014</v>
       </c>
       <c r="F156" t="n">
-        <v>2236069.6651</v>
+        <v>842.0651</v>
       </c>
       <c r="G156" t="n">
-        <v>0.5971083333333335</v>
+        <v>0.5972766666666669</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5896,22 +5890,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6012</v>
+        <v>0.5879</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6012</v>
+        <v>0.5879</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6012</v>
+        <v>0.5879</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6012</v>
+        <v>0.5879</v>
       </c>
       <c r="F157" t="n">
-        <v>843.8176999999999</v>
+        <v>2236069.6651</v>
       </c>
       <c r="G157" t="n">
-        <v>0.5971533333333334</v>
+        <v>0.5971083333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5943,10 +5937,10 @@
         <v>0.6012</v>
       </c>
       <c r="F158" t="n">
-        <v>899.2173</v>
+        <v>843.8176999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>0.5971983333333334</v>
+        <v>0.5971533333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5966,22 +5960,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5871</v>
+        <v>0.6012</v>
       </c>
       <c r="C159" t="n">
-        <v>0.601</v>
+        <v>0.6012</v>
       </c>
       <c r="D159" t="n">
-        <v>0.601</v>
+        <v>0.6012</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5871</v>
+        <v>0.6012</v>
       </c>
       <c r="F159" t="n">
-        <v>3232871.4486</v>
+        <v>899.2173</v>
       </c>
       <c r="G159" t="n">
-        <v>0.59724</v>
+        <v>0.5971983333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6001,7 +5995,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.601</v>
+        <v>0.5871</v>
       </c>
       <c r="C160" t="n">
         <v>0.601</v>
@@ -6010,13 +6004,13 @@
         <v>0.601</v>
       </c>
       <c r="E160" t="n">
-        <v>0.601</v>
+        <v>0.5871</v>
       </c>
       <c r="F160" t="n">
-        <v>934.3189</v>
+        <v>3232871.4486</v>
       </c>
       <c r="G160" t="n">
-        <v>0.5972933333333333</v>
+        <v>0.59724</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6036,22 +6030,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5877</v>
+        <v>0.601</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5877</v>
+        <v>0.601</v>
       </c>
       <c r="D161" t="n">
-        <v>0.5877</v>
+        <v>0.601</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5877</v>
+        <v>0.601</v>
       </c>
       <c r="F161" t="n">
-        <v>4981299.5139</v>
+        <v>934.3189</v>
       </c>
       <c r="G161" t="n">
-        <v>0.5971566666666667</v>
+        <v>0.5972933333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6071,22 +6065,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6006</v>
+        <v>0.5877</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6006</v>
+        <v>0.5877</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6006</v>
+        <v>0.5877</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6006</v>
+        <v>0.5877</v>
       </c>
       <c r="F162" t="n">
-        <v>843.812</v>
+        <v>4981299.5139</v>
       </c>
       <c r="G162" t="n">
-        <v>0.5971916666666667</v>
+        <v>0.5971566666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6106,22 +6100,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5869</v>
+        <v>0.6006</v>
       </c>
       <c r="C163" t="n">
-        <v>0.5861</v>
+        <v>0.6006</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5869</v>
+        <v>0.6006</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5861</v>
+        <v>0.6006</v>
       </c>
       <c r="F163" t="n">
-        <v>292409.5461</v>
+        <v>843.812</v>
       </c>
       <c r="G163" t="n">
-        <v>0.5970283333333334</v>
+        <v>0.5971916666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6141,22 +6135,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6005</v>
+        <v>0.5869</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6005</v>
+        <v>0.5861</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6005</v>
+        <v>0.5869</v>
       </c>
       <c r="E164" t="n">
-        <v>0.6005</v>
+        <v>0.5861</v>
       </c>
       <c r="F164" t="n">
-        <v>875.3881</v>
+        <v>292409.5461</v>
       </c>
       <c r="G164" t="n">
-        <v>0.5970616666666666</v>
+        <v>0.5970283333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6176,22 +6170,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5934</v>
+        <v>0.6005</v>
       </c>
       <c r="C165" t="n">
-        <v>0.5934</v>
+        <v>0.6005</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5934</v>
+        <v>0.6005</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5934</v>
+        <v>0.6005</v>
       </c>
       <c r="F165" t="n">
-        <v>1039974.5534</v>
+        <v>875.3881</v>
       </c>
       <c r="G165" t="n">
-        <v>0.5969816666666666</v>
+        <v>0.5970616666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6211,22 +6205,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.5993000000000001</v>
+        <v>0.5934</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5993000000000001</v>
+        <v>0.5934</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5993000000000001</v>
+        <v>0.5934</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5993000000000001</v>
+        <v>0.5934</v>
       </c>
       <c r="F166" t="n">
-        <v>861.0397</v>
+        <v>1039974.5534</v>
       </c>
       <c r="G166" t="n">
-        <v>0.5970216666666667</v>
+        <v>0.5969816666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6246,22 +6240,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.5978</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5978</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5978</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5978</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="F167" t="n">
-        <v>92156.811</v>
+        <v>861.0397</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5970099999999999</v>
+        <v>0.5970216666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6276,6 +6270,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="F168" t="n">
+        <v>92156.811</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.5970099999999999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest APIS.xlsx
+++ b/BackTest/2020-01-16 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1018.8778</v>
       </c>
       <c r="G2" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.6006966666666672</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>3478880.3634</v>
       </c>
       <c r="G3" t="n">
+        <v>0.5990933333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6005100000000005</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2130918.0736</v>
       </c>
       <c r="G4" t="n">
+        <v>0.5985266666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.6002933333333339</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1434889.8208</v>
       </c>
       <c r="G5" t="n">
+        <v>0.5985599999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6001200000000005</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>4461313.1996</v>
       </c>
       <c r="G6" t="n">
+        <v>0.5985066666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5999166666666672</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>836.0245</v>
       </c>
       <c r="G7" t="n">
+        <v>0.5991933333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.5998866666666671</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>4302450.8671</v>
       </c>
       <c r="G8" t="n">
+        <v>0.5987466666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5997266666666672</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>845.3138</v>
       </c>
       <c r="G9" t="n">
+        <v>0.5987399999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5996883333333339</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1073318.651</v>
       </c>
       <c r="G10" t="n">
+        <v>0.5990733333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5995683333333338</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>857.8049</v>
       </c>
       <c r="G11" t="n">
+        <v>0.59944</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5995350000000005</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1066538.3717</v>
       </c>
       <c r="G12" t="n">
+        <v>0.5995533333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5995033333333338</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1826830.3309</v>
       </c>
       <c r="G13" t="n">
+        <v>0.5995799999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.5994200000000004</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>10809.8567</v>
       </c>
       <c r="G14" t="n">
+        <v>0.5989999999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.5993300000000005</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>4403278.984</v>
       </c>
       <c r="G15" t="n">
+        <v>0.5990266666666665</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.5992666666666672</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1001488.3649</v>
       </c>
       <c r="G16" t="n">
+        <v>0.5991133333333332</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.5992150000000006</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2800500.6447</v>
       </c>
       <c r="G17" t="n">
+        <v>0.5990066666666665</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5991900000000006</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>894.8635</v>
       </c>
       <c r="G18" t="n">
+        <v>0.5995999999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.5991500000000005</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3208721.359</v>
       </c>
       <c r="G19" t="n">
+        <v>0.60012</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.5990616666666673</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>66102.3055</v>
       </c>
       <c r="G20" t="n">
+        <v>0.6006533333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5990366666666672</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>24850.89463220676</v>
       </c>
       <c r="G21" t="n">
+        <v>0.6013466666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5991016666666673</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2664697.5465</v>
       </c>
       <c r="G22" t="n">
+        <v>0.6013400000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.5991650000000006</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>50000</v>
       </c>
       <c r="G23" t="n">
+        <v>0.6018266666666668</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.5991650000000006</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>187991.4362</v>
       </c>
       <c r="G24" t="n">
+        <v>0.6018266666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.5992633333333338</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>3637533.286</v>
       </c>
       <c r="G25" t="n">
+        <v>0.6019466666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.5992600000000006</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1465648.4618</v>
       </c>
       <c r="G26" t="n">
+        <v>0.6014733333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.5993133333333339</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>167064.1306</v>
       </c>
       <c r="G27" t="n">
+        <v>0.6010000000000002</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.5991833333333338</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>4154478.5258</v>
       </c>
       <c r="G28" t="n">
+        <v>0.6007600000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.5992016666666672</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>851.977</v>
       </c>
       <c r="G29" t="n">
+        <v>0.6014533333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.5991733333333339</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2839417.0845</v>
       </c>
       <c r="G30" t="n">
+        <v>0.6015466666666669</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.5993133333333339</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2554851.0254</v>
       </c>
       <c r="G31" t="n">
+        <v>0.6014466666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.5992416666666672</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>841.2178</v>
       </c>
       <c r="G32" t="n">
+        <v>0.6016666666666668</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.5992050000000005</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>4182325.0718</v>
       </c>
       <c r="G33" t="n">
+        <v>0.6015800000000001</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.5991466666666672</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>843.624</v>
       </c>
       <c r="G34" t="n">
+        <v>0.6017533333333335</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.5991500000000004</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>3326492.4087</v>
       </c>
       <c r="G35" t="n">
+        <v>0.6014733333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.5991900000000004</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>332124.0854</v>
       </c>
       <c r="G36" t="n">
+        <v>0.6010000000000002</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.5990666666666671</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>916.3473</v>
       </c>
       <c r="G37" t="n">
+        <v>0.6010066666666668</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.5992316666666671</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>4584225.3675</v>
       </c>
       <c r="G38" t="n">
+        <v>0.6006333333333335</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.5993050000000004</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1453.9786</v>
       </c>
       <c r="G39" t="n">
+        <v>0.6001600000000002</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.5993583333333337</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>854.3121</v>
       </c>
       <c r="G40" t="n">
+        <v>0.6004000000000003</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.5993633333333338</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>4138169.8612</v>
       </c>
       <c r="G41" t="n">
+        <v>0.6008200000000002</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.599416666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>10000</v>
       </c>
       <c r="G42" t="n">
+        <v>0.6012933333333336</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.5995683333333337</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>19969.4183</v>
       </c>
       <c r="G43" t="n">
+        <v>0.6012466666666668</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.5996183333333337</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1872875.1669</v>
       </c>
       <c r="G44" t="n">
+        <v>0.6011066666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.5997550000000004</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1007.1525</v>
       </c>
       <c r="G45" t="n">
+        <v>0.6005000000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.5997750000000004</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1777997.1967</v>
       </c>
       <c r="G46" t="n">
+        <v>0.6000333333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.5997550000000003</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>2589999.3507</v>
       </c>
       <c r="G47" t="n">
+        <v>0.5995600000000002</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.5998083333333336</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>4547128.1511</v>
       </c>
       <c r="G48" t="n">
+        <v>0.5992933333333336</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.5998916666666669</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>849.3680000000001</v>
       </c>
       <c r="G49" t="n">
+        <v>0.5991466666666668</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.5998866666666669</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>901594.4983</v>
       </c>
       <c r="G50" t="n">
+        <v>0.5988200000000002</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.5998766666666668</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>14477285.0921</v>
       </c>
       <c r="G51" t="n">
+        <v>0.5984733333333335</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.5998316666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1783758.6996</v>
       </c>
       <c r="G52" t="n">
+        <v>0.5982400000000002</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.5999450000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>100000</v>
       </c>
       <c r="G53" t="n">
+        <v>0.5977933333333335</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.59975</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1000000</v>
       </c>
       <c r="G54" t="n">
+        <v>0.5974466666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.5995433333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>835.7199000000001</v>
       </c>
       <c r="G55" t="n">
+        <v>0.5973000000000002</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.5996799999999998</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1408524.6913</v>
       </c>
       <c r="G56" t="n">
+        <v>0.5970066666666668</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.5996849999999997</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>4055242.2568</v>
       </c>
       <c r="G57" t="n">
+        <v>0.5963666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.599553333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>848.8763</v>
       </c>
       <c r="G58" t="n">
+        <v>0.5966933333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.5995699999999997</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>2941291.866</v>
       </c>
       <c r="G59" t="n">
+        <v>0.5961066666666668</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.5994166666666664</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>2028200.7166</v>
       </c>
       <c r="G60" t="n">
+        <v>0.5963066666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.5993449999999997</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>3712151.5459</v>
       </c>
       <c r="G61" t="n">
+        <v>0.5966400000000002</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.599308333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>11454.7454</v>
       </c>
       <c r="G62" t="n">
+        <v>0.5963866666666668</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.5991549999999997</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2343020.643</v>
       </c>
       <c r="G63" t="n">
+        <v>0.5961066666666668</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.5991449999999996</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>1608.9014</v>
       </c>
       <c r="G64" t="n">
+        <v>0.59562</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.5991599999999995</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>1163698.4708</v>
       </c>
       <c r="G65" t="n">
+        <v>0.5959733333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.5992299999999996</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>3278220.2031</v>
       </c>
       <c r="G66" t="n">
+        <v>0.5964200000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.5993099999999995</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>875.5586</v>
       </c>
       <c r="G67" t="n">
+        <v>0.5964000000000002</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.5992466666666662</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>4543156.2247</v>
       </c>
       <c r="G68" t="n">
+        <v>0.5968800000000001</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.5992833333333328</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>1621603.6924</v>
       </c>
       <c r="G69" t="n">
+        <v>0.5969733333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.5991016666666662</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>1092.0274</v>
       </c>
       <c r="G70" t="n">
+        <v>0.5967466666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.5990983333333328</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>2477.8388</v>
       </c>
       <c r="G71" t="n">
+        <v>0.5963666666666668</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.5989166666666662</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1919685.2707</v>
       </c>
       <c r="G72" t="n">
+        <v>0.5964066666666669</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.5987666666666662</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,22 +3151,21 @@
         <v>2476.9347</v>
       </c>
       <c r="G73" t="n">
+        <v>0.5961800000000003</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.5987199999999996</v>
       </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.5946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,1815 +3189,1979 @@
         <v>1405765.7961</v>
       </c>
       <c r="G74" t="n">
+        <v>0.5963800000000002</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.5987616666666662</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.5964133333333337</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.5986916666666661</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1542026.759</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.5962733333333337</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.5985983333333328</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5927</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5836</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5927</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5836</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7733822.1306</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.5956666666666669</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.5983199999999994</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1022518.204</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.595786666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.5981916666666661</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F79" t="n">
+        <v>314011.798</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.5959133333333337</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.5981083333333327</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F80" t="n">
+        <v>5447017.5723</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.5956600000000004</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.597981666666666</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="F81" t="n">
+        <v>146499.0772</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.595526666666667</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.5978549999999992</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3811061.9483</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.5953533333333336</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.5977499999999993</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="F83" t="n">
+        <v>962907.7173</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.5952666666666669</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.5976433333333326</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5961</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.5961</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4515350.099</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.5954933333333335</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.5975183333333327</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1979117.8763</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.5953533333333335</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.5974499999999993</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5961</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5961</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.5961</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.5961</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15783.9051</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.5955800000000001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.5974433333333327</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4609238.7936</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.5956733333333335</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.5974349999999993</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F88" t="n">
+        <v>60539.5063</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.5955333333333335</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.5974133333333326</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="F89" t="n">
+        <v>527151.7965000001</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.5956400000000001</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.5973083333333326</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5963000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.5963000000000001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.5963000000000001</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5963000000000001</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1537414.4326</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.5955266666666666</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.5971866666666659</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="F91" t="n">
+        <v>16322.0526</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.59552</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.5971166666666659</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="F92" t="n">
+        <v>282615.1394</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.59644</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.5970133333333325</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.5974</v>
+      </c>
+      <c r="F93" t="n">
+        <v>717384.8606</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.59654</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.5969316666666659</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2674108.3528</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.5965733333333334</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.5968133333333324</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4713434.9661</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.5967333333333333</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.5967966666666658</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.5967266666666667</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.5967866666666658</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4445916.4445</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.5967800000000002</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.5966933333333324</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="F98" t="n">
+        <v>866.357</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.5968666666666669</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.5967016666666658</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4359808.7666</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.5970266666666668</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.5967349999999991</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1050849.0678</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.5972000000000002</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.5966499999999991</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1488368.4025</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.5973133333333335</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.5965666666666658</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F102" t="n">
+        <v>310000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.5973066666666668</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.5964383333333324</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="F103" t="n">
+        <v>985.9228000000001</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.5974800000000001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.5964716666666658</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F104" t="n">
+        <v>350947.9934</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.5973866666666667</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.5963783333333325</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1556322.4254</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.5975333333333334</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.5964449999999992</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.5982</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.5982</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.5982</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5982</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4443646.828</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.5975933333333334</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.5965066666666659</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.5969</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.5969</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.5969</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.5969</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3255059.8407</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.59756</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.5965133333333325</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1835.653</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.5976333333333332</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.5965166666666658</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2681436.0519</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.5977199999999999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.5964566666666659</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="F110" t="n">
+        <v>876.9204</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.5977266666666665</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.5965233333333325</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="F111" t="n">
+        <v>333155.4742</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.5980999999999999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.5966933333333326</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3775642.3244</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.5983333333333331</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.596716666666666</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4535817.7884</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.5985266666666664</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.5968849999999993</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="F114" t="n">
+        <v>82917.3947</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.5987266666666664</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.5970549999999994</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1663257.0985</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.5988866666666665</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.5970466666666662</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3420483.8338</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.599093333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.597088333333333</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1082664.9543</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.5993666666666664</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.597188333333333</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1755023.8127</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.5994666666666664</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.5971649999999997</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="F119" t="n">
+        <v>837.8795</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.5998399999999997</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.5973116666666664</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="F120" t="n">
+        <v>812332.3272000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.5997999999999997</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.5973183333333332</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="F121" t="n">
+        <v>493685.6064</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.5996533333333329</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.5972599999999998</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F122" t="n">
+        <v>833942.7362</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.5995866666666664</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.597313333333333</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3453177.4135</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.5996733333333331</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.5974083333333332</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2301961.0801</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.599553333333333</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.5974399999999999</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.5986916666666661</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4085.7241</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.5993799999999998</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.5973749999999998</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.5974</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.5974</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1542026.759</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.5985983333333328</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.5927</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.5836</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.5927</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.5836</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7733822.1306</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.5983199999999994</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1022518.204</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.5981916666666661</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F79" t="n">
-        <v>314011.798</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.5981083333333327</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F80" t="n">
-        <v>5447017.5723</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.597981666666666</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="F81" t="n">
-        <v>146499.0772</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.5978549999999992</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.5972</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.5972</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3811061.9483</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.5977499999999993</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.5972</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.5972</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.5972</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.5972</v>
-      </c>
-      <c r="F83" t="n">
-        <v>962907.7173</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.5976433333333326</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.5961</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.5961</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F84" t="n">
-        <v>4515350.099</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.5975183333333327</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1979117.8763</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.5974499999999993</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.5961</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.5961</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.5961</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.5961</v>
-      </c>
-      <c r="F86" t="n">
-        <v>15783.9051</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.5974433333333327</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.5972</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.5972</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4609238.7936</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.5974349999999993</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F88" t="n">
-        <v>60539.5063</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.5974133333333326</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="F89" t="n">
-        <v>527151.7965000001</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.5973083333333326</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.5963000000000001</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.5963000000000001</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.5963000000000001</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.5963000000000001</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1537414.4326</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.5971866666666659</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="F91" t="n">
-        <v>16322.0526</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.5971166666666659</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.5974</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.5974</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.5974</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.5974</v>
-      </c>
-      <c r="F92" t="n">
-        <v>282615.1394</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.5970133333333325</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.5974</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.5974</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.5974</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.5974</v>
-      </c>
-      <c r="F93" t="n">
-        <v>717384.8606</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.5969316666666659</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2674108.3528</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.5968133333333324</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="F95" t="n">
-        <v>4713434.9661</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.5967966666666658</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.5967866666666658</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="F97" t="n">
-        <v>4445916.4445</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.5966933333333324</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="F98" t="n">
-        <v>866.357</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.5967016666666658</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.5973000000000001</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4359808.7666</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.5967349999999991</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1050849.0678</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.5966499999999991</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1488368.4025</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.5965666666666658</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F102" t="n">
-        <v>310000</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.5964383333333324</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="F103" t="n">
-        <v>985.9228000000001</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.5964716666666658</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F104" t="n">
-        <v>350947.9934</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.5963783333333325</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1556322.4254</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.5964449999999992</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.5982</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.5982</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.5982</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.5982</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4443646.828</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.5965066666666659</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.5969</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.5969</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.5969</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.5969</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3255059.8407</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.5965133333333325</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1835.653</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.5965166666666658</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2681436.0519</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.5964566666666659</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="F110" t="n">
-        <v>876.9204</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.5965233333333325</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="F111" t="n">
-        <v>333155.4742</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.5966933333333326</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="F112" t="n">
-        <v>3775642.3244</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.596716666666666</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4535817.7884</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.5968849999999993</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="F114" t="n">
-        <v>82917.3947</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.5970549999999994</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1663257.0985</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.5970466666666662</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3420483.8338</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.597088333333333</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1082664.9543</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.597188333333333</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1755023.8127</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.5971649999999997</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="F119" t="n">
-        <v>837.8795</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.5973116666666664</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="F120" t="n">
-        <v>812332.3272000001</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.5973183333333332</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="F121" t="n">
-        <v>493685.6064</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.5972599999999998</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F122" t="n">
-        <v>833942.7362</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.597313333333333</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3453177.4135</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.5974083333333332</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2301961.0801</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.5974399999999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4085.7241</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.5973749999999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5185,25 @@
         <v>1179220.9731</v>
       </c>
       <c r="G126" t="n">
+        <v>0.5993666666666665</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.5974299999999998</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5227,27 @@
         <v>2063161.3145</v>
       </c>
       <c r="G127" t="n">
+        <v>0.5991733333333331</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.5974099999999998</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5271,27 @@
         <v>843.4731</v>
       </c>
       <c r="G128" t="n">
+        <v>0.5991799999999998</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.5974599999999998</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5315,21 @@
         <v>3745815.692</v>
       </c>
       <c r="G129" t="n">
+        <v>0.5989533333333331</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.5975499999999998</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5353,21 @@
         <v>2238221.2122</v>
       </c>
       <c r="G130" t="n">
+        <v>0.5988799999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.5975799999999999</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5391,21 @@
         <v>3772219.1517</v>
       </c>
       <c r="G131" t="n">
+        <v>0.5987533333333332</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.5976849999999998</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5429,21 @@
         <v>848.2827</v>
       </c>
       <c r="G132" t="n">
+        <v>0.5987399999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.5977716666666665</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5467,21 @@
         <v>4947290.0528</v>
       </c>
       <c r="G133" t="n">
+        <v>0.5987133333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.5977983333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5505,21 @@
         <v>7789722.2236</v>
       </c>
       <c r="G134" t="n">
+        <v>0.5975600000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.5976066666666665</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5543,21 @@
         <v>4569979.6272</v>
       </c>
       <c r="G135" t="n">
+        <v>0.5966466666666669</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.5973766666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5581,21 @@
         <v>855.0393</v>
       </c>
       <c r="G136" t="n">
+        <v>0.5968933333333336</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.5974149999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5619,21 @@
         <v>2183574.0268</v>
       </c>
       <c r="G137" t="n">
+        <v>0.5962000000000002</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.5974466666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5657,21 @@
         <v>861.5144</v>
       </c>
       <c r="G138" t="n">
+        <v>0.5961866666666669</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.5975083333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5695,21 @@
         <v>3128474.2837</v>
       </c>
       <c r="G139" t="n">
+        <v>0.5957666666666669</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.5974033333333335</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5733,21 @@
         <v>838.2172</v>
       </c>
       <c r="G140" t="n">
+        <v>0.5960000000000002</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.5974600000000002</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +5771,21 @@
         <v>493184.2918</v>
       </c>
       <c r="G141" t="n">
+        <v>0.5957733333333335</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.597491666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +5809,21 @@
         <v>1562940.3407</v>
       </c>
       <c r="G142" t="n">
+        <v>0.5949466666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.5973083333333337</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +5847,21 @@
         <v>841.1766</v>
       </c>
       <c r="G143" t="n">
+        <v>0.5947800000000002</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.5973383333333335</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +5885,21 @@
         <v>4207153.3091</v>
       </c>
       <c r="G144" t="n">
+        <v>0.5943133333333335</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.5972550000000002</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +5923,21 @@
         <v>866.8827</v>
       </c>
       <c r="G145" t="n">
+        <v>0.5942533333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.5973050000000002</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +5961,21 @@
         <v>1177593.6486</v>
       </c>
       <c r="G146" t="n">
+        <v>0.5941733333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.5973333333333335</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +5999,21 @@
         <v>838.8914</v>
       </c>
       <c r="G147" t="n">
+        <v>0.5941066666666668</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.5973800000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6037,21 @@
         <v>2323187.0136</v>
       </c>
       <c r="G148" t="n">
+        <v>0.5935333333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.5972983333333335</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6075,21 @@
         <v>837.5155</v>
       </c>
       <c r="G149" t="n">
+        <v>0.5946866666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.5973683333333336</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6113,21 @@
         <v>223620.278</v>
       </c>
       <c r="G150" t="n">
+        <v>0.5947066666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.5971716666666669</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6151,21 @@
         <v>35238.9888</v>
       </c>
       <c r="G151" t="n">
+        <v>0.59482</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.5972400000000003</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6189,21 @@
         <v>2485956.0861</v>
       </c>
       <c r="G152" t="n">
+        <v>0.5954866666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.5972083333333337</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,22 +6227,21 @@
         <v>1878462.7461</v>
       </c>
       <c r="G153" t="n">
+        <v>0.5954466666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.5972350000000002</v>
       </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.5955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5788,24 +6265,21 @@
         <v>839.6642000000001</v>
       </c>
       <c r="G154" t="n">
+        <v>0.5962266666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>0.5973166666666668</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5829,24 +6303,21 @@
         <v>1821112.8563</v>
       </c>
       <c r="G155" t="n">
+        <v>0.5956333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.5971850000000002</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5870,18 +6341,21 @@
         <v>842.0651</v>
       </c>
       <c r="G156" t="n">
+        <v>0.5958666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>0.5972766666666669</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,18 +6379,21 @@
         <v>2236069.6651</v>
       </c>
       <c r="G157" t="n">
+        <v>0.5959800000000001</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.5971083333333335</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5940,18 +6417,21 @@
         <v>843.8176999999999</v>
       </c>
       <c r="G158" t="n">
+        <v>0.5961266666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>0.5971533333333334</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5975,18 +6455,21 @@
         <v>899.2173</v>
       </c>
       <c r="G159" t="n">
+        <v>0.5968000000000001</v>
+      </c>
+      <c r="H159" t="n">
         <v>0.5971983333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6010,18 +6493,21 @@
         <v>3232871.4486</v>
       </c>
       <c r="G160" t="n">
+        <v>0.59694</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.59724</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6045,18 +6531,21 @@
         <v>934.3189</v>
       </c>
       <c r="G161" t="n">
+        <v>0.5971533333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>0.5972933333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6080,18 +6569,21 @@
         <v>4981299.5139</v>
       </c>
       <c r="G162" t="n">
+        <v>0.5964133333333332</v>
+      </c>
+      <c r="H162" t="n">
         <v>0.5971566666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6115,18 +6607,21 @@
         <v>843.812</v>
       </c>
       <c r="G163" t="n">
+        <v>0.5970533333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>0.5971916666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6150,18 +6645,21 @@
         <v>292409.5461</v>
       </c>
       <c r="G164" t="n">
+        <v>0.5960266666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>0.5970283333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6185,18 +6683,21 @@
         <v>875.3881</v>
       </c>
       <c r="G165" t="n">
+        <v>0.5970933333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>0.5970616666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,18 +6721,21 @@
         <v>1039974.5534</v>
       </c>
       <c r="G166" t="n">
+        <v>0.5965600000000001</v>
+      </c>
+      <c r="H166" t="n">
         <v>0.5969816666666666</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6255,18 +6759,21 @@
         <v>861.0397</v>
       </c>
       <c r="G167" t="n">
+        <v>0.5968133333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>0.5970216666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,18 +6797,401 @@
         <v>92156.811</v>
       </c>
       <c r="G168" t="n">
+        <v>0.5967333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>0.5970099999999999</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.5991</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.5991</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1727.3553</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.5966266666666667</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.5970433333333334</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.5968</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.5968</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.5968</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.5968</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1667635.1055</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.5970466666666667</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.5970150000000001</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1206679.7515</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.5968766666666667</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.5866</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.5866</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.5866</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.5866</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2131017.0198</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.5964133333333334</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.5966283333333333</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3891805.2261</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.5962266666666667</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.5965783333333333</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="F174" t="n">
+        <v>418879.4679</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.5960466666666666</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.5965283333333333</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.5897</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.5897</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.5897</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.5897</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2650066.2309</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.5952933333333335</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.5963416666666667</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="F176" t="n">
+        <v>871.7212</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.5951266666666667</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.5963016666666666</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="F177" t="n">
+        <v>42718.3992</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.59512</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.5960949999999999</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4907713.4048</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.5947666666666667</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.5960166666666666</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest APIS.xlsx
+++ b/BackTest/2020-01-16 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6058</v>
+        <v>0.6022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6058</v>
+        <v>0.6022</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6058</v>
+        <v>0.6022</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6058</v>
+        <v>0.6022</v>
       </c>
       <c r="F2" t="n">
-        <v>791048.7725</v>
+        <v>4403278.984</v>
       </c>
       <c r="G2" t="n">
-        <v>-2082591.117399999</v>
+        <v>-46096271.8896</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6034</v>
+        <v>0.603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6034</v>
+        <v>0.603</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6034</v>
+        <v>0.603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6034</v>
+        <v>0.603</v>
       </c>
       <c r="F3" t="n">
-        <v>3843576.7167</v>
+        <v>1001488.3649</v>
       </c>
       <c r="G3" t="n">
-        <v>-5926167.8341</v>
+        <v>-45094783.5247</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.597</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.597</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.597</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.597</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>1167766.5169</v>
+        <v>2800500.6447</v>
       </c>
       <c r="G4" t="n">
-        <v>-7093934.351</v>
+        <v>-47895284.1694</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6039</v>
+        <v>0.6036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6039</v>
+        <v>0.6036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6039</v>
+        <v>0.6036</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6039</v>
+        <v>0.6036</v>
       </c>
       <c r="F5" t="n">
-        <v>2760527.8481</v>
+        <v>894.8635</v>
       </c>
       <c r="G5" t="n">
-        <v>-4333406.5029</v>
+        <v>-47894389.3059</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5937</v>
+        <v>0.601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5937</v>
+        <v>0.601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5937</v>
+        <v>0.601</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5937</v>
+        <v>0.601</v>
       </c>
       <c r="F6" t="n">
-        <v>136491.9059</v>
+        <v>3208721.359</v>
       </c>
       <c r="G6" t="n">
-        <v>-4469898.408799999</v>
+        <v>-51103110.6649</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5937</v>
+        <v>0.6036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5936</v>
+        <v>0.6036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5937</v>
+        <v>0.6036</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5936</v>
+        <v>0.6036</v>
       </c>
       <c r="F7" t="n">
-        <v>2001638.2121</v>
+        <v>66102.3055</v>
       </c>
       <c r="G7" t="n">
-        <v>-6471536.6209</v>
+        <v>-51037008.3594</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5936</v>
+        <v>0.6036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5936</v>
+        <v>0.6036</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="F8" t="n">
-        <v>12932445.548</v>
+        <v>24850.89463220676</v>
       </c>
       <c r="G8" t="n">
-        <v>-19403982.1689</v>
+        <v>-51037008.3594</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6035</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6035</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6035</v>
       </c>
       <c r="F9" t="n">
-        <v>2872026.8704</v>
+        <v>2664697.5465</v>
       </c>
       <c r="G9" t="n">
-        <v>-16531955.2985</v>
+        <v>-53701705.90589999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5996</v>
+        <v>0.6036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5996</v>
+        <v>0.6036</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5996</v>
+        <v>0.6036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5996</v>
+        <v>0.6036</v>
       </c>
       <c r="F10" t="n">
-        <v>4274782.312</v>
+        <v>50000</v>
       </c>
       <c r="G10" t="n">
-        <v>-20806737.6105</v>
+        <v>-53651705.90589999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5945</v>
+        <v>0.6036</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5945</v>
+        <v>0.6036</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5945</v>
+        <v>0.6036</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5945</v>
+        <v>0.6036</v>
       </c>
       <c r="F11" t="n">
-        <v>4695805.9386</v>
+        <v>187991.4362</v>
       </c>
       <c r="G11" t="n">
-        <v>-25502543.5491</v>
+        <v>-53651705.90589999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5934</v>
+        <v>0.6026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5935</v>
+        <v>0.6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5935</v>
+        <v>0.6026</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5934</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
-        <v>4750864.562</v>
+        <v>3637533.286</v>
       </c>
       <c r="G12" t="n">
-        <v>-30253408.1111</v>
+        <v>-57289239.19189999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5933</v>
+        <v>0.5982</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5933</v>
+        <v>0.5965</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5933</v>
+        <v>0.5982</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5933</v>
+        <v>0.5965</v>
       </c>
       <c r="F13" t="n">
-        <v>253905.7836</v>
+        <v>1465648.4618</v>
       </c>
       <c r="G13" t="n">
-        <v>-30507313.89469999</v>
+        <v>-58754887.65369999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5933</v>
+        <v>0.5965</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5933</v>
+        <v>0.5965</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5933</v>
+        <v>0.5965</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5933</v>
+        <v>0.5965</v>
       </c>
       <c r="F14" t="n">
-        <v>718931.554</v>
+        <v>167064.1306</v>
       </c>
       <c r="G14" t="n">
-        <v>-30507313.89469999</v>
+        <v>-58754887.65369999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5957</v>
+        <v>0.5972</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5957</v>
+        <v>0.5972</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5957</v>
+        <v>0.5972</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5957</v>
+        <v>0.5972</v>
       </c>
       <c r="F15" t="n">
-        <v>2987346.3522</v>
+        <v>4154478.5258</v>
       </c>
       <c r="G15" t="n">
-        <v>-27519967.54249999</v>
+        <v>-54600409.1279</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="F16" t="n">
-        <v>16366.6121</v>
+        <v>851.977</v>
       </c>
       <c r="G16" t="n">
-        <v>-27536334.15459999</v>
+        <v>-54599557.1509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5933</v>
+        <v>0.6</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5933</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
-        <v>226234.3675</v>
+        <v>2839417.0845</v>
       </c>
       <c r="G17" t="n">
-        <v>-27536334.15459999</v>
+        <v>-54599557.1509</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6017</v>
+        <v>0.6015</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6017</v>
+        <v>0.6015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6017</v>
+        <v>0.6015</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6017</v>
+        <v>0.6015</v>
       </c>
       <c r="F18" t="n">
-        <v>1809159.53</v>
+        <v>2554851.0254</v>
       </c>
       <c r="G18" t="n">
-        <v>-25727174.62459999</v>
+        <v>-57154408.1763</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5951</v>
+        <v>0.6036</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5951</v>
+        <v>0.6036</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5951</v>
+        <v>0.6036</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5951</v>
+        <v>0.6036</v>
       </c>
       <c r="F19" t="n">
-        <v>1046319.5946</v>
+        <v>841.2178</v>
       </c>
       <c r="G19" t="n">
-        <v>-26773494.21919999</v>
+        <v>-57153566.9585</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.594</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.594</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.594</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.594</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>2325096.8803</v>
+        <v>4182325.0718</v>
       </c>
       <c r="G20" t="n">
-        <v>-29098591.09949999</v>
+        <v>-61335892.0303</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="F21" t="n">
-        <v>263966.6848</v>
+        <v>843.624</v>
       </c>
       <c r="G21" t="n">
-        <v>-29362557.78429999</v>
+        <v>-61335048.4063</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.603</v>
+        <v>0.5994</v>
       </c>
       <c r="C22" t="n">
-        <v>0.603</v>
+        <v>0.5994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.603</v>
+        <v>0.5994</v>
       </c>
       <c r="E22" t="n">
-        <v>0.603</v>
+        <v>0.5994</v>
       </c>
       <c r="F22" t="n">
-        <v>1832927.3907</v>
+        <v>3326492.4087</v>
       </c>
       <c r="G22" t="n">
-        <v>-27529630.39359999</v>
+        <v>-64661540.815</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6037</v>
+        <v>0.5965</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6037</v>
+        <v>0.5965</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6037</v>
+        <v>0.5965</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6037</v>
+        <v>0.5965</v>
       </c>
       <c r="F23" t="n">
-        <v>830.3376</v>
+        <v>332124.0854</v>
       </c>
       <c r="G23" t="n">
-        <v>-27528800.05599999</v>
+        <v>-64993664.9004</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6036</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5933</v>
+        <v>0.6036</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6036</v>
       </c>
       <c r="F24" t="n">
-        <v>507626.1602</v>
+        <v>916.3473</v>
       </c>
       <c r="G24" t="n">
-        <v>-28036426.21619999</v>
+        <v>-64992748.5531</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6019</v>
+        <v>0.598</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5981</v>
+        <v>0.598</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6019</v>
+        <v>0.598</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5981</v>
+        <v>0.598</v>
       </c>
       <c r="F25" t="n">
-        <v>2472035.1128</v>
+        <v>4584225.3675</v>
       </c>
       <c r="G25" t="n">
-        <v>-25564391.10339999</v>
+        <v>-69576973.9206</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5962</v>
+        <v>0.5965</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6019</v>
+        <v>0.5965</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6019</v>
+        <v>0.5965</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5962</v>
+        <v>0.5965</v>
       </c>
       <c r="F26" t="n">
-        <v>2638512.0236</v>
+        <v>1453.9786</v>
       </c>
       <c r="G26" t="n">
-        <v>-22925879.07979999</v>
+        <v>-69578427.89919999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6004</v>
+        <v>0.6036</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6004</v>
+        <v>0.6036</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6004</v>
+        <v>0.6036</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6004</v>
+        <v>0.6036</v>
       </c>
       <c r="F27" t="n">
-        <v>3895449.503</v>
+        <v>854.3121</v>
       </c>
       <c r="G27" t="n">
-        <v>-26821328.58279999</v>
+        <v>-69577573.5871</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6019</v>
+        <v>0.6028</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6019</v>
+        <v>0.6028</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6019</v>
+        <v>0.6028</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6019</v>
+        <v>0.6028</v>
       </c>
       <c r="F28" t="n">
-        <v>1011.7545</v>
+        <v>4138169.8612</v>
       </c>
       <c r="G28" t="n">
-        <v>-26820316.82829999</v>
+        <v>-73715743.4483</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6018</v>
+        <v>0.6036</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6018</v>
+        <v>0.6036</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6018</v>
+        <v>0.6036</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6018</v>
+        <v>0.6036</v>
       </c>
       <c r="F29" t="n">
-        <v>4179968.6574</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="n">
-        <v>-31000285.48569999</v>
+        <v>-73705743.4483</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6017</v>
+        <v>0.5965</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6017</v>
+        <v>0.5965</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6017</v>
+        <v>0.5965</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6017</v>
+        <v>0.5965</v>
       </c>
       <c r="F30" t="n">
-        <v>3653191.8874</v>
+        <v>19969.4183</v>
       </c>
       <c r="G30" t="n">
-        <v>-34653477.37309999</v>
+        <v>-73725712.86660001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6019</v>
+        <v>0.5965</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6019</v>
+        <v>0.6015</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6019</v>
+        <v>0.6015</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6019</v>
+        <v>0.5965</v>
       </c>
       <c r="F31" t="n">
-        <v>1018.8778</v>
+        <v>1872875.1669</v>
       </c>
       <c r="G31" t="n">
-        <v>-34652458.49529999</v>
+        <v>-71852837.69970001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5947</v>
+        <v>0.5945</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5947</v>
+        <v>0.5945</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5947</v>
+        <v>0.5945</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5947</v>
+        <v>0.5945</v>
       </c>
       <c r="F32" t="n">
-        <v>3478880.3634</v>
+        <v>1007.1525</v>
       </c>
       <c r="G32" t="n">
-        <v>-38131338.85869998</v>
+        <v>-71853844.85220002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5933</v>
+        <v>0.5999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5945</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5933</v>
+        <v>0.5999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5945</v>
       </c>
       <c r="F33" t="n">
-        <v>2130918.0736</v>
+        <v>1777997.1967</v>
       </c>
       <c r="G33" t="n">
-        <v>-40262256.93229999</v>
+        <v>-71853844.85220002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5956</v>
+        <v>0.5965</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5956</v>
+        <v>0.5965</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5956</v>
+        <v>0.5965</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5956</v>
+        <v>0.5965</v>
       </c>
       <c r="F34" t="n">
-        <v>1434889.8208</v>
+        <v>2589999.3507</v>
       </c>
       <c r="G34" t="n">
-        <v>-38827367.11149999</v>
+        <v>-69263845.50150001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5952</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5952</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>4461313.1996</v>
+        <v>4547128.1511</v>
       </c>
       <c r="G35" t="n">
-        <v>-43288680.31109999</v>
+        <v>-64716717.35040001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6036</v>
+        <v>0.6014</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6036</v>
+        <v>0.6014</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6036</v>
+        <v>0.6014</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6036</v>
+        <v>0.6014</v>
       </c>
       <c r="F36" t="n">
-        <v>836.0245</v>
+        <v>849.3680000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-43287844.28659999</v>
+        <v>-64715867.98240001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5945</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5945</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5945</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5945</v>
       </c>
       <c r="F37" t="n">
-        <v>4302450.8671</v>
+        <v>901594.4983</v>
       </c>
       <c r="G37" t="n">
-        <v>-47590295.15369999</v>
+        <v>-65617462.48070001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6036</v>
+        <v>0.5941</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6036</v>
+        <v>0.5913</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6036</v>
+        <v>0.5941</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6036</v>
+        <v>0.5913</v>
       </c>
       <c r="F38" t="n">
-        <v>845.3138</v>
+        <v>14477285.0921</v>
       </c>
       <c r="G38" t="n">
-        <v>-47589449.83989999</v>
+        <v>-80094747.57280001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5982</v>
+        <v>0.6001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5982</v>
+        <v>0.6001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5982</v>
+        <v>0.6001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5982</v>
+        <v>0.6001</v>
       </c>
       <c r="F39" t="n">
-        <v>1073318.651</v>
+        <v>1783758.6996</v>
       </c>
       <c r="G39" t="n">
-        <v>-48662768.49089999</v>
+        <v>-78310988.87320001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6036</v>
+        <v>0.5913</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6036</v>
+        <v>0.5913</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6036</v>
+        <v>0.5913</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6036</v>
+        <v>0.5913</v>
       </c>
       <c r="F40" t="n">
-        <v>857.8049</v>
+        <v>100000</v>
       </c>
       <c r="G40" t="n">
-        <v>-48661910.686</v>
+        <v>-78410988.87320001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6027</v>
+        <v>0.5914</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6036</v>
+        <v>0.5913</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6036</v>
+        <v>0.5914</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6027</v>
+        <v>0.5913</v>
       </c>
       <c r="F41" t="n">
-        <v>1066538.3717</v>
+        <v>1000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-48661910.686</v>
+        <v>-78410988.87320001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6008</v>
+        <v>0.6014</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6008</v>
+        <v>0.6014</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6008</v>
+        <v>0.6014</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6008</v>
+        <v>0.6014</v>
       </c>
       <c r="F42" t="n">
-        <v>1826830.3309</v>
+        <v>835.7199000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-50488741.0169</v>
+        <v>-78410153.15330002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="F43" t="n">
-        <v>10809.8567</v>
+        <v>1408524.6913</v>
       </c>
       <c r="G43" t="n">
-        <v>-50499550.8736</v>
+        <v>-79818677.84460002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6022</v>
+        <v>0.594</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6022</v>
+        <v>0.594</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6022</v>
+        <v>0.594</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6022</v>
+        <v>0.594</v>
       </c>
       <c r="F44" t="n">
-        <v>4403278.984</v>
+        <v>4055242.2568</v>
       </c>
       <c r="G44" t="n">
-        <v>-46096271.8896</v>
+        <v>-83873920.10140002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.603</v>
+        <v>0.6014</v>
       </c>
       <c r="C45" t="n">
-        <v>0.603</v>
+        <v>0.6014</v>
       </c>
       <c r="D45" t="n">
-        <v>0.603</v>
+        <v>0.6014</v>
       </c>
       <c r="E45" t="n">
-        <v>0.603</v>
+        <v>0.6014</v>
       </c>
       <c r="F45" t="n">
-        <v>1001488.3649</v>
+        <v>848.8763</v>
       </c>
       <c r="G45" t="n">
-        <v>-45094783.5247</v>
+        <v>-83873071.22510001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6002999999999999</v>
+        <v>0.5927</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6002999999999999</v>
+        <v>0.5927</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6002999999999999</v>
+        <v>0.5927</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6002999999999999</v>
+        <v>0.5927</v>
       </c>
       <c r="F46" t="n">
-        <v>2800500.6447</v>
+        <v>2941291.866</v>
       </c>
       <c r="G46" t="n">
-        <v>-47895284.1694</v>
+        <v>-86814363.09110001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6036</v>
+        <v>0.5975</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6036</v>
+        <v>0.5975</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6036</v>
+        <v>0.5975</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6036</v>
+        <v>0.5975</v>
       </c>
       <c r="F47" t="n">
-        <v>894.8635</v>
+        <v>2028200.7166</v>
       </c>
       <c r="G47" t="n">
-        <v>-47894389.3059</v>
+        <v>-84786162.37450001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.601</v>
+        <v>0.5995</v>
       </c>
       <c r="C48" t="n">
-        <v>0.601</v>
+        <v>0.5995</v>
       </c>
       <c r="D48" t="n">
-        <v>0.601</v>
+        <v>0.5995</v>
       </c>
       <c r="E48" t="n">
-        <v>0.601</v>
+        <v>0.5995</v>
       </c>
       <c r="F48" t="n">
-        <v>3208721.359</v>
+        <v>3712151.5459</v>
       </c>
       <c r="G48" t="n">
-        <v>-51103110.6649</v>
+        <v>-81074010.8286</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6036</v>
+        <v>0.5927</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6036</v>
+        <v>0.5927</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6036</v>
+        <v>0.5927</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6036</v>
+        <v>0.5927</v>
       </c>
       <c r="F49" t="n">
-        <v>66102.3055</v>
+        <v>11454.7454</v>
       </c>
       <c r="G49" t="n">
-        <v>-51037008.3594</v>
+        <v>-81085465.574</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6036</v>
+        <v>0.5927</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6036</v>
+        <v>0.5941</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6036</v>
+        <v>0.5941</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6036</v>
+        <v>0.5927</v>
       </c>
       <c r="F50" t="n">
-        <v>24850.89463220676</v>
+        <v>2343020.643</v>
       </c>
       <c r="G50" t="n">
-        <v>-51037008.3594</v>
+        <v>-78742444.93099999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6035</v>
+        <v>0.5941</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6035</v>
+        <v>0.5941</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6035</v>
+        <v>0.5941</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6035</v>
+        <v>0.5941</v>
       </c>
       <c r="F51" t="n">
-        <v>2664697.5465</v>
+        <v>1608.9014</v>
       </c>
       <c r="G51" t="n">
-        <v>-53701705.90589999</v>
+        <v>-78742444.93099999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6036</v>
+        <v>0.5941</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6036</v>
+        <v>0.5998</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6036</v>
+        <v>0.5998</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6036</v>
+        <v>0.5941</v>
       </c>
       <c r="F52" t="n">
-        <v>50000</v>
+        <v>1163698.4708</v>
       </c>
       <c r="G52" t="n">
-        <v>-53651705.90589999</v>
+        <v>-77578746.4602</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6036</v>
+        <v>0.598</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6036</v>
+        <v>0.598</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6036</v>
+        <v>0.598</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6036</v>
+        <v>0.598</v>
       </c>
       <c r="F53" t="n">
-        <v>187991.4362</v>
+        <v>3278220.2031</v>
       </c>
       <c r="G53" t="n">
-        <v>-53651705.90589999</v>
+        <v>-80856966.66329999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6026</v>
+        <v>0.5998</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6</v>
+        <v>0.5998</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6026</v>
+        <v>0.5998</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6</v>
+        <v>0.5998</v>
       </c>
       <c r="F54" t="n">
-        <v>3637533.286</v>
+        <v>875.5586</v>
       </c>
       <c r="G54" t="n">
-        <v>-57289239.19189999</v>
+        <v>-80856091.1047</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5982</v>
+        <v>0.5979</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5965</v>
+        <v>0.5985</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5982</v>
+        <v>0.5985</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5965</v>
+        <v>0.5979</v>
       </c>
       <c r="F55" t="n">
-        <v>1465648.4618</v>
+        <v>4543156.2247</v>
       </c>
       <c r="G55" t="n">
-        <v>-58754887.65369999</v>
+        <v>-85399247.3294</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5965</v>
+        <v>0.5927</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5965</v>
+        <v>0.5927</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5965</v>
+        <v>0.5927</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5965</v>
+        <v>0.5927</v>
       </c>
       <c r="F56" t="n">
-        <v>167064.1306</v>
+        <v>1621603.6924</v>
       </c>
       <c r="G56" t="n">
-        <v>-58754887.65369999</v>
+        <v>-87020851.0218</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5972</v>
+        <v>0.598</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5972</v>
+        <v>0.598</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5972</v>
+        <v>0.598</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5972</v>
+        <v>0.598</v>
       </c>
       <c r="F57" t="n">
-        <v>4154478.5258</v>
+        <v>1092.0274</v>
       </c>
       <c r="G57" t="n">
-        <v>-54600409.1279</v>
+        <v>-87019758.99439999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6036</v>
+        <v>0.5927</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6036</v>
+        <v>0.5927</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6036</v>
+        <v>0.5927</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6036</v>
+        <v>0.5927</v>
       </c>
       <c r="F58" t="n">
-        <v>851.977</v>
+        <v>2477.8388</v>
       </c>
       <c r="G58" t="n">
-        <v>-54599557.1509</v>
+        <v>-87022236.83319999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6</v>
+        <v>0.5946</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6036</v>
+        <v>0.5946</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6036</v>
+        <v>0.5946</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6</v>
+        <v>0.5946</v>
       </c>
       <c r="F59" t="n">
-        <v>2839417.0845</v>
+        <v>1919685.2707</v>
       </c>
       <c r="G59" t="n">
-        <v>-54599557.1509</v>
+        <v>-85102551.5625</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6015</v>
+        <v>0.598</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6015</v>
+        <v>0.598</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6015</v>
+        <v>0.598</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6015</v>
+        <v>0.598</v>
       </c>
       <c r="F60" t="n">
-        <v>2554851.0254</v>
+        <v>2476.9347</v>
       </c>
       <c r="G60" t="n">
-        <v>-57154408.1763</v>
+        <v>-85100074.6278</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6036</v>
+        <v>0.5957</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6036</v>
+        <v>0.5957</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6036</v>
+        <v>0.5957</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6036</v>
+        <v>0.5957</v>
       </c>
       <c r="F61" t="n">
-        <v>841.2178</v>
+        <v>1405765.7961</v>
       </c>
       <c r="G61" t="n">
-        <v>-57153566.9585</v>
+        <v>-86505840.42390001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.598</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.598</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.598</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.598</v>
       </c>
       <c r="F62" t="n">
-        <v>4182325.0718</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>-61335892.0303</v>
+        <v>-86504840.42390001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6036</v>
+        <v>0.5965</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6036</v>
+        <v>0.5974</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6036</v>
+        <v>0.5974</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6036</v>
+        <v>0.5965</v>
       </c>
       <c r="F63" t="n">
-        <v>843.624</v>
+        <v>1542026.759</v>
       </c>
       <c r="G63" t="n">
-        <v>-61335048.4063</v>
+        <v>-88046867.18290001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5994</v>
+        <v>0.5927</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5994</v>
+        <v>0.5836</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5994</v>
+        <v>0.5927</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5994</v>
+        <v>0.5836</v>
       </c>
       <c r="F64" t="n">
-        <v>3326492.4087</v>
+        <v>7733822.1306</v>
       </c>
       <c r="G64" t="n">
-        <v>-64661540.815</v>
+        <v>-95780689.31350002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,133 +2699,157 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5965</v>
+        <v>0.5959</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5965</v>
+        <v>0.5959</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5965</v>
+        <v>0.5959</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5965</v>
+        <v>0.5959</v>
       </c>
       <c r="F65" t="n">
-        <v>332124.0854</v>
+        <v>1022518.204</v>
       </c>
       <c r="G65" t="n">
-        <v>-64993664.9004</v>
+        <v>-94758171.10950002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.5836</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.5836</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6036</v>
+        <v>0.5959</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6036</v>
+        <v>0.596</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6036</v>
+        <v>0.596</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6036</v>
+        <v>0.5959</v>
       </c>
       <c r="F66" t="n">
-        <v>916.3473</v>
+        <v>314011.798</v>
       </c>
       <c r="G66" t="n">
-        <v>-64992748.5531</v>
+        <v>-94444159.31150003</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5836</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.598</v>
+        <v>0.596</v>
       </c>
       <c r="C67" t="n">
-        <v>0.598</v>
+        <v>0.596</v>
       </c>
       <c r="D67" t="n">
-        <v>0.598</v>
+        <v>0.596</v>
       </c>
       <c r="E67" t="n">
-        <v>0.598</v>
+        <v>0.5959</v>
       </c>
       <c r="F67" t="n">
-        <v>4584225.3675</v>
+        <v>5447017.5723</v>
       </c>
       <c r="G67" t="n">
-        <v>-69576973.9206</v>
+        <v>-94444159.31150003</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.5836</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5965</v>
+        <v>0.596</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5965</v>
+        <v>0.596</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5965</v>
+        <v>0.596</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5965</v>
+        <v>0.596</v>
       </c>
       <c r="F68" t="n">
-        <v>1453.9786</v>
+        <v>146499.0772</v>
       </c>
       <c r="G68" t="n">
-        <v>-69578427.89919999</v>
+        <v>-94444159.31150003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2863,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6036</v>
+        <v>0.597</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6036</v>
+        <v>0.5972</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6036</v>
+        <v>0.5972</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6036</v>
+        <v>0.597</v>
       </c>
       <c r="F69" t="n">
-        <v>854.3121</v>
+        <v>3811061.9483</v>
       </c>
       <c r="G69" t="n">
-        <v>-69577573.5871</v>
+        <v>-90633097.36320002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2899,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6028</v>
+        <v>0.5972</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6028</v>
+        <v>0.5972</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6028</v>
+        <v>0.5972</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6028</v>
+        <v>0.5972</v>
       </c>
       <c r="F70" t="n">
-        <v>4138169.8612</v>
+        <v>962907.7173</v>
       </c>
       <c r="G70" t="n">
-        <v>-73715743.4483</v>
+        <v>-90633097.36320002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2935,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6036</v>
+        <v>0.596</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6036</v>
+        <v>0.5961</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6036</v>
+        <v>0.5961</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6036</v>
+        <v>0.5959</v>
       </c>
       <c r="F71" t="n">
-        <v>10000</v>
+        <v>4515350.099</v>
       </c>
       <c r="G71" t="n">
-        <v>-73705743.4483</v>
+        <v>-95148447.46220003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2971,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5965</v>
+        <v>0.5959</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5965</v>
+        <v>0.5959</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5965</v>
+        <v>0.5959</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5965</v>
+        <v>0.5959</v>
       </c>
       <c r="F72" t="n">
-        <v>19969.4183</v>
+        <v>1979117.8763</v>
       </c>
       <c r="G72" t="n">
-        <v>-73725712.86660001</v>
+        <v>-97127565.33850004</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3007,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5965</v>
+        <v>0.5961</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6015</v>
+        <v>0.5961</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6015</v>
+        <v>0.5961</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5965</v>
+        <v>0.5961</v>
       </c>
       <c r="F73" t="n">
-        <v>1872875.1669</v>
+        <v>15783.9051</v>
       </c>
       <c r="G73" t="n">
-        <v>-71852837.69970001</v>
+        <v>-97111781.43340003</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3043,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5945</v>
+        <v>0.5972</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5945</v>
+        <v>0.596</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5945</v>
+        <v>0.5972</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5945</v>
+        <v>0.596</v>
       </c>
       <c r="F74" t="n">
-        <v>1007.1525</v>
+        <v>4609238.7936</v>
       </c>
       <c r="G74" t="n">
-        <v>-71853844.85220002</v>
+        <v>-101721020.227</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3079,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5999</v>
+        <v>0.5959</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5945</v>
+        <v>0.5959</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5999</v>
+        <v>0.5959</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5945</v>
+        <v>0.5959</v>
       </c>
       <c r="F75" t="n">
-        <v>1777997.1967</v>
+        <v>60539.5063</v>
       </c>
       <c r="G75" t="n">
-        <v>-71853844.85220002</v>
+        <v>-101781559.7333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3115,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5965</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5965</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5965</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5965</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>2589999.3507</v>
+        <v>527151.7965000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-69263845.50150001</v>
+        <v>-101254407.9368</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3151,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>4547128.1511</v>
+        <v>1537414.4326</v>
       </c>
       <c r="G77" t="n">
-        <v>-64716717.35040001</v>
+        <v>-102791822.3694</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3187,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6014</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6014</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6014</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6014</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>849.3680000000001</v>
+        <v>16322.0526</v>
       </c>
       <c r="G78" t="n">
-        <v>-64715867.98240001</v>
+        <v>-102775500.3168</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3223,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5945</v>
+        <v>0.5974</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5945</v>
+        <v>0.5974</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5945</v>
+        <v>0.5974</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5945</v>
+        <v>0.5974</v>
       </c>
       <c r="F79" t="n">
-        <v>901594.4983</v>
+        <v>282615.1394</v>
       </c>
       <c r="G79" t="n">
-        <v>-65617462.48070001</v>
+        <v>-102492885.1774</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3259,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5941</v>
+        <v>0.5974</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5913</v>
+        <v>0.5974</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5941</v>
+        <v>0.5974</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5913</v>
+        <v>0.5974</v>
       </c>
       <c r="F80" t="n">
-        <v>14477285.0921</v>
+        <v>717384.8606</v>
       </c>
       <c r="G80" t="n">
-        <v>-80094747.57280001</v>
+        <v>-102492885.1774</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3295,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6001</v>
+        <v>0.5965</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6001</v>
+        <v>0.5965</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6001</v>
+        <v>0.5965</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6001</v>
+        <v>0.5965</v>
       </c>
       <c r="F81" t="n">
-        <v>1783758.6996</v>
+        <v>2674108.3528</v>
       </c>
       <c r="G81" t="n">
-        <v>-78310988.87320001</v>
+        <v>-105166993.5302</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3331,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5913</v>
+        <v>0.5984</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5913</v>
+        <v>0.5984</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5913</v>
+        <v>0.5984</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5913</v>
+        <v>0.5984</v>
       </c>
       <c r="F82" t="n">
-        <v>100000</v>
+        <v>4713434.9661</v>
       </c>
       <c r="G82" t="n">
-        <v>-78410988.87320001</v>
+        <v>-100453558.5641</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,133 +3367,157 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5914</v>
+        <v>0.5959</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5913</v>
+        <v>0.5959</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5914</v>
+        <v>0.5959</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5913</v>
+        <v>0.5959</v>
       </c>
       <c r="F83" t="n">
         <v>1000000</v>
       </c>
       <c r="G83" t="n">
-        <v>-78410988.87320001</v>
+        <v>-101453558.5641</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6014</v>
+        <v>0.598</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6014</v>
+        <v>0.598</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6014</v>
+        <v>0.598</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6014</v>
+        <v>0.598</v>
       </c>
       <c r="F84" t="n">
-        <v>835.7199000000001</v>
+        <v>4445916.4445</v>
       </c>
       <c r="G84" t="n">
-        <v>-78410153.15330002</v>
+        <v>-97007642.11960003</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="F85" t="n">
+        <v>866.357</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-97006775.76260003</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.5984</v>
       </c>
-      <c r="C85" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1408524.6913</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-79818677.84460002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.594</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.594</v>
+        <v>0.5985</v>
       </c>
       <c r="D86" t="n">
-        <v>0.594</v>
+        <v>0.5985</v>
       </c>
       <c r="E86" t="n">
-        <v>0.594</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>4055242.2568</v>
+        <v>4359808.7666</v>
       </c>
       <c r="G86" t="n">
-        <v>-83873920.10140002</v>
+        <v>-97006775.76260003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3531,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6014</v>
+        <v>0.5985</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6014</v>
+        <v>0.5985</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6014</v>
+        <v>0.5985</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6014</v>
+        <v>0.5985</v>
       </c>
       <c r="F87" t="n">
-        <v>848.8763</v>
+        <v>1050849.0678</v>
       </c>
       <c r="G87" t="n">
-        <v>-83873071.22510001</v>
+        <v>-97006775.76260003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3567,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5927</v>
+        <v>0.5978</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5927</v>
+        <v>0.5978</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5927</v>
+        <v>0.5978</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5927</v>
+        <v>0.5978</v>
       </c>
       <c r="F88" t="n">
-        <v>2941291.866</v>
+        <v>1488368.4025</v>
       </c>
       <c r="G88" t="n">
-        <v>-86814363.09110001</v>
+        <v>-98495144.16510004</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3603,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5975</v>
+        <v>0.5959</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5975</v>
+        <v>0.5959</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5975</v>
+        <v>0.5959</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5975</v>
+        <v>0.5959</v>
       </c>
       <c r="F89" t="n">
-        <v>2028200.7166</v>
+        <v>310000</v>
       </c>
       <c r="G89" t="n">
-        <v>-84786162.37450001</v>
+        <v>-98805144.16510004</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,63 +3639,69 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5995</v>
+        <v>0.5985</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5995</v>
+        <v>0.5985</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5995</v>
+        <v>0.5985</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5995</v>
+        <v>0.5985</v>
       </c>
       <c r="F90" t="n">
-        <v>3712151.5459</v>
+        <v>985.9228000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-81074010.8286</v>
+        <v>-98804158.24230003</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5959</v>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5927</v>
+        <v>0.5959</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5927</v>
+        <v>0.5959</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5927</v>
+        <v>0.5959</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5927</v>
+        <v>0.5959</v>
       </c>
       <c r="F91" t="n">
-        <v>11454.7454</v>
+        <v>350947.9934</v>
       </c>
       <c r="G91" t="n">
-        <v>-81085465.574</v>
+        <v>-99155106.23570003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +3710,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5927</v>
+        <v>0.5978</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5941</v>
+        <v>0.5985</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5941</v>
+        <v>0.5985</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5927</v>
+        <v>0.5978</v>
       </c>
       <c r="F92" t="n">
-        <v>2343020.643</v>
+        <v>1556322.4254</v>
       </c>
       <c r="G92" t="n">
-        <v>-78742444.93099999</v>
+        <v>-97598783.81030002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,68 +3752,80 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5941</v>
+        <v>0.5982</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5941</v>
+        <v>0.5982</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5941</v>
+        <v>0.5982</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5941</v>
+        <v>0.5982</v>
       </c>
       <c r="F93" t="n">
-        <v>1608.9014</v>
+        <v>4443646.828</v>
       </c>
       <c r="G93" t="n">
-        <v>-78742444.93099999</v>
+        <v>-102042430.6383</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.5985</v>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5941</v>
+        <v>0.5969</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5998</v>
+        <v>0.5969</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5998</v>
+        <v>0.5969</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5941</v>
+        <v>0.5969</v>
       </c>
       <c r="F94" t="n">
-        <v>1163698.4708</v>
+        <v>3255059.8407</v>
       </c>
       <c r="G94" t="n">
-        <v>-77578746.4602</v>
+        <v>-105297490.479</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,33 +3834,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.598</v>
+        <v>0.5985</v>
       </c>
       <c r="C95" t="n">
-        <v>0.598</v>
+        <v>0.5985</v>
       </c>
       <c r="D95" t="n">
-        <v>0.598</v>
+        <v>0.5985</v>
       </c>
       <c r="E95" t="n">
-        <v>0.598</v>
+        <v>0.5985</v>
       </c>
       <c r="F95" t="n">
-        <v>3278220.2031</v>
+        <v>1835.653</v>
       </c>
       <c r="G95" t="n">
-        <v>-80856966.66329999</v>
+        <v>-105295654.826</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,33 +3876,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5998</v>
+        <v>0.5978</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5998</v>
+        <v>0.5978</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5998</v>
+        <v>0.5978</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5998</v>
+        <v>0.5978</v>
       </c>
       <c r="F96" t="n">
-        <v>875.5586</v>
+        <v>2681436.0519</v>
       </c>
       <c r="G96" t="n">
-        <v>-80856091.1047</v>
+        <v>-107977090.8779</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,13 +3923,14 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5979</v>
+        <v>0.5985</v>
       </c>
       <c r="C97" t="n">
         <v>0.5985</v>
@@ -3767,48 +3939,53 @@
         <v>0.5985</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5979</v>
+        <v>0.5985</v>
       </c>
       <c r="F97" t="n">
-        <v>4543156.2247</v>
+        <v>876.9204</v>
       </c>
       <c r="G97" t="n">
-        <v>-85399247.3294</v>
+        <v>-107976213.9575</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.5978</v>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5927</v>
+        <v>0.5985</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5927</v>
+        <v>0.6015</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5927</v>
+        <v>0.6015</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5927</v>
+        <v>0.5985</v>
       </c>
       <c r="F98" t="n">
-        <v>1621603.6924</v>
+        <v>333155.4742</v>
       </c>
       <c r="G98" t="n">
-        <v>-87020851.0218</v>
+        <v>-107643058.4833</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,33 +3994,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.598</v>
+        <v>0.5985</v>
       </c>
       <c r="C99" t="n">
-        <v>0.598</v>
+        <v>0.6015</v>
       </c>
       <c r="D99" t="n">
-        <v>0.598</v>
+        <v>0.6015</v>
       </c>
       <c r="E99" t="n">
-        <v>0.598</v>
+        <v>0.5979</v>
       </c>
       <c r="F99" t="n">
-        <v>1092.0274</v>
+        <v>3775642.3244</v>
       </c>
       <c r="G99" t="n">
-        <v>-87019758.99439999</v>
+        <v>-107643058.4833</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,33 +4036,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5927</v>
+        <v>0.6014</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5927</v>
+        <v>0.6014</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5927</v>
+        <v>0.6014</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5927</v>
+        <v>0.6014</v>
       </c>
       <c r="F100" t="n">
-        <v>2477.8388</v>
+        <v>4535817.7884</v>
       </c>
       <c r="G100" t="n">
-        <v>-87022236.83319999</v>
+        <v>-112178876.2717</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +4083,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5946</v>
+        <v>0.6015</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5946</v>
+        <v>0.6015</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5946</v>
+        <v>0.6015</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5946</v>
+        <v>0.6015</v>
       </c>
       <c r="F101" t="n">
-        <v>1919685.2707</v>
+        <v>82917.3947</v>
       </c>
       <c r="G101" t="n">
-        <v>-85102551.5625</v>
+        <v>-112095958.877</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4119,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.598</v>
+        <v>0.6009</v>
       </c>
       <c r="C102" t="n">
-        <v>0.598</v>
+        <v>0.6009</v>
       </c>
       <c r="D102" t="n">
-        <v>0.598</v>
+        <v>0.6009</v>
       </c>
       <c r="E102" t="n">
-        <v>0.598</v>
+        <v>0.6009</v>
       </c>
       <c r="F102" t="n">
-        <v>2476.9347</v>
+        <v>1663257.0985</v>
       </c>
       <c r="G102" t="n">
-        <v>-85100074.6278</v>
+        <v>-113759215.9755</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4155,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5957</v>
+        <v>0.6009</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5957</v>
+        <v>0.6009</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5957</v>
+        <v>0.6009</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5957</v>
+        <v>0.6009</v>
       </c>
       <c r="F103" t="n">
-        <v>1405765.7961</v>
+        <v>3420483.8338</v>
       </c>
       <c r="G103" t="n">
-        <v>-86505840.42390001</v>
+        <v>-113759215.9755</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4191,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.598</v>
+        <v>0.6015</v>
       </c>
       <c r="C104" t="n">
-        <v>0.598</v>
+        <v>0.6</v>
       </c>
       <c r="D104" t="n">
-        <v>0.598</v>
+        <v>0.6015</v>
       </c>
       <c r="E104" t="n">
-        <v>0.598</v>
+        <v>0.6</v>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>1082664.9543</v>
       </c>
       <c r="G104" t="n">
-        <v>-86504840.42390001</v>
+        <v>-114841880.9298</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4227,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5965</v>
+        <v>0.5992</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5974</v>
+        <v>0.6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5974</v>
+        <v>0.6</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5965</v>
+        <v>0.5992</v>
       </c>
       <c r="F105" t="n">
-        <v>1542026.759</v>
+        <v>1755023.8127</v>
       </c>
       <c r="G105" t="n">
-        <v>-88046867.18290001</v>
+        <v>-114841880.9298</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4263,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5927</v>
+        <v>0.6015</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5836</v>
+        <v>0.6015</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5927</v>
+        <v>0.6015</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5836</v>
+        <v>0.6015</v>
       </c>
       <c r="F106" t="n">
-        <v>7733822.1306</v>
+        <v>837.8795</v>
       </c>
       <c r="G106" t="n">
-        <v>-95780689.31350002</v>
+        <v>-114841043.0503</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4299,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5959</v>
+        <v>0.5979</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5959</v>
+        <v>0.5979</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5959</v>
+        <v>0.5979</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5959</v>
+        <v>0.5979</v>
       </c>
       <c r="F107" t="n">
-        <v>1022518.204</v>
+        <v>812332.3272000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-94758171.10950002</v>
+        <v>-115653375.3775</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,13 +4335,14 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="C108" t="n">
         <v>0.596</v>
@@ -4152,293 +4351,357 @@
         <v>0.596</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5959</v>
+        <v>0.596</v>
       </c>
       <c r="F108" t="n">
-        <v>314011.798</v>
+        <v>493685.6064</v>
       </c>
       <c r="G108" t="n">
-        <v>-94444159.31150003</v>
+        <v>-116147060.9839</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.5979</v>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.596</v>
+        <v>0.5959</v>
       </c>
       <c r="C109" t="n">
-        <v>0.596</v>
+        <v>0.5959</v>
       </c>
       <c r="D109" t="n">
-        <v>0.596</v>
+        <v>0.5959</v>
       </c>
       <c r="E109" t="n">
         <v>0.5959</v>
       </c>
       <c r="F109" t="n">
-        <v>5447017.5723</v>
+        <v>833942.7362</v>
       </c>
       <c r="G109" t="n">
-        <v>-94444159.31150003</v>
+        <v>-116981003.7201</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.596</v>
+        <v>0.5998</v>
       </c>
       <c r="C110" t="n">
-        <v>0.596</v>
+        <v>0.5998</v>
       </c>
       <c r="D110" t="n">
-        <v>0.596</v>
+        <v>0.5998</v>
       </c>
       <c r="E110" t="n">
-        <v>0.596</v>
+        <v>0.5998</v>
       </c>
       <c r="F110" t="n">
-        <v>146499.0772</v>
+        <v>3453177.4135</v>
       </c>
       <c r="G110" t="n">
-        <v>-94444159.31150003</v>
+        <v>-113527826.3066</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.597</v>
+        <v>0.596</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5972</v>
+        <v>0.596</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5972</v>
+        <v>0.596</v>
       </c>
       <c r="E111" t="n">
-        <v>0.597</v>
+        <v>0.596</v>
       </c>
       <c r="F111" t="n">
-        <v>3811061.9483</v>
+        <v>2301961.0801</v>
       </c>
       <c r="G111" t="n">
-        <v>-90633097.36320002</v>
+        <v>-115829787.3867</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.5998</v>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5972</v>
+        <v>0.5959</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5972</v>
+        <v>0.5959</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5972</v>
+        <v>0.5959</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5972</v>
+        <v>0.5959</v>
       </c>
       <c r="F112" t="n">
-        <v>962907.7173</v>
+        <v>4085.7241</v>
       </c>
       <c r="G112" t="n">
-        <v>-90633097.36320002</v>
+        <v>-115833873.1108</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.596</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5961</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5961</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="E113" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1179220.9731</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-114654652.1377</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
         <v>0.5959</v>
       </c>
-      <c r="F113" t="n">
-        <v>4515350.099</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-95148447.46220003</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5959</v>
+        <v>0.6015</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5959</v>
+        <v>0.5986</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5959</v>
+        <v>0.6015</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5959</v>
+        <v>0.5986</v>
       </c>
       <c r="F114" t="n">
-        <v>1979117.8763</v>
+        <v>2063161.3145</v>
       </c>
       <c r="G114" t="n">
-        <v>-97127565.33850004</v>
+        <v>-116717813.4522</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5961</v>
+        <v>0.6015</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5961</v>
+        <v>0.6015</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5961</v>
+        <v>0.6015</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5961</v>
+        <v>0.6015</v>
       </c>
       <c r="F115" t="n">
-        <v>15783.9051</v>
+        <v>843.4731</v>
       </c>
       <c r="G115" t="n">
-        <v>-97111781.43340003</v>
+        <v>-116716969.9791</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5972</v>
+        <v>0.5981</v>
       </c>
       <c r="C116" t="n">
-        <v>0.596</v>
+        <v>0.5981</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5972</v>
+        <v>0.5981</v>
       </c>
       <c r="E116" t="n">
-        <v>0.596</v>
+        <v>0.5981</v>
       </c>
       <c r="F116" t="n">
-        <v>4609238.7936</v>
+        <v>3745815.692</v>
       </c>
       <c r="G116" t="n">
-        <v>-101721020.227</v>
+        <v>-120462785.6711</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,418 +4710,524 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5959</v>
+        <v>0.5998</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5959</v>
+        <v>0.5998</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5959</v>
+        <v>0.5998</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5959</v>
+        <v>0.5998</v>
       </c>
       <c r="F117" t="n">
-        <v>60539.5063</v>
+        <v>2238221.2122</v>
       </c>
       <c r="G117" t="n">
-        <v>-101781559.7333</v>
+        <v>-118224564.4589</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.5981</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.599</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.599</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.599</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.599</v>
       </c>
       <c r="F118" t="n">
-        <v>527151.7965000001</v>
+        <v>3772219.1517</v>
       </c>
       <c r="G118" t="n">
-        <v>-101254407.9368</v>
+        <v>-121996783.6106</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5998</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5998</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5998</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5963000000000001</v>
+        <v>0.5998</v>
       </c>
       <c r="F119" t="n">
-        <v>1537414.4326</v>
+        <v>848.2827</v>
       </c>
       <c r="G119" t="n">
-        <v>-102791822.3694</v>
+        <v>-121995935.3279</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5996</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5996</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5996</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5996</v>
       </c>
       <c r="F120" t="n">
-        <v>16322.0526</v>
+        <v>4947290.0528</v>
       </c>
       <c r="G120" t="n">
-        <v>-102775500.3168</v>
+        <v>-126943225.3807</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5974</v>
+        <v>0.5959</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5974</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5974</v>
+        <v>0.5959</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5974</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>282615.1394</v>
+        <v>7789722.2236</v>
       </c>
       <c r="G121" t="n">
-        <v>-102492885.1774</v>
+        <v>-134732947.6043</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5974</v>
+        <v>0.5864</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5974</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5974</v>
+        <v>0.5997</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5974</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>717384.8606</v>
+        <v>4569979.6272</v>
       </c>
       <c r="G122" t="n">
-        <v>-102492885.1774</v>
+        <v>-134732947.6043</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5965</v>
+        <v>0.5997</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5965</v>
+        <v>0.5997</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5965</v>
+        <v>0.5997</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5965</v>
+        <v>0.5997</v>
       </c>
       <c r="F123" t="n">
-        <v>2674108.3528</v>
+        <v>855.0393</v>
       </c>
       <c r="G123" t="n">
-        <v>-105166993.5302</v>
+        <v>-134732092.565</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5984</v>
+        <v>0.5855</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5984</v>
+        <v>0.5855</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5984</v>
+        <v>0.5855</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5984</v>
+        <v>0.5855</v>
       </c>
       <c r="F124" t="n">
-        <v>4713434.9661</v>
+        <v>2183574.0268</v>
       </c>
       <c r="G124" t="n">
-        <v>-100453558.5641</v>
+        <v>-136915666.5918</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.5997</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5959</v>
+        <v>0.5996</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5959</v>
+        <v>0.5996</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5959</v>
+        <v>0.5996</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5959</v>
+        <v>0.5996</v>
       </c>
       <c r="F125" t="n">
-        <v>1000000</v>
+        <v>861.5144</v>
       </c>
       <c r="G125" t="n">
-        <v>-101453558.5641</v>
+        <v>-136914805.0774</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.5855</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.598</v>
+        <v>0.5897</v>
       </c>
       <c r="C126" t="n">
-        <v>0.598</v>
+        <v>0.5897</v>
       </c>
       <c r="D126" t="n">
-        <v>0.598</v>
+        <v>0.5897</v>
       </c>
       <c r="E126" t="n">
-        <v>0.598</v>
+        <v>0.5897</v>
       </c>
       <c r="F126" t="n">
-        <v>4445916.4445</v>
+        <v>3128474.2837</v>
       </c>
       <c r="G126" t="n">
-        <v>-97007642.11960003</v>
+        <v>-140043279.3611</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5985</v>
+        <v>0.5994</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5985</v>
+        <v>0.5994</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5985</v>
+        <v>0.5994</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5985</v>
+        <v>0.5994</v>
       </c>
       <c r="F127" t="n">
-        <v>866.357</v>
+        <v>838.2172</v>
       </c>
       <c r="G127" t="n">
-        <v>-97006775.76260003</v>
+        <v>-140042441.1439</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.5897</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5979</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5985</v>
+        <v>0.5979</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5985</v>
+        <v>0.5979</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5979</v>
       </c>
       <c r="F128" t="n">
-        <v>4359808.7666</v>
+        <v>493184.2918</v>
       </c>
       <c r="G128" t="n">
-        <v>-97006775.76260003</v>
+        <v>-140535625.4357</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,33 +5236,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5985</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5985</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5985</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5985</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>1050849.0678</v>
+        <v>1562940.3407</v>
       </c>
       <c r="G129" t="n">
-        <v>-97006775.76260003</v>
+        <v>-142098565.7764</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,33 +5278,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5978</v>
+        <v>0.599</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5978</v>
+        <v>0.599</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5978</v>
+        <v>0.599</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5978</v>
+        <v>0.599</v>
       </c>
       <c r="F130" t="n">
-        <v>1488368.4025</v>
+        <v>841.1766</v>
       </c>
       <c r="G130" t="n">
-        <v>-98495144.16510004</v>
+        <v>-142097724.5998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,33 +5320,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5959</v>
+        <v>0.5911</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5959</v>
+        <v>0.5911</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5959</v>
+        <v>0.5911</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5959</v>
+        <v>0.5911</v>
       </c>
       <c r="F131" t="n">
-        <v>310000</v>
+        <v>4207153.3091</v>
       </c>
       <c r="G131" t="n">
-        <v>-98805144.16510004</v>
+        <v>-146304877.9089</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,33 +5362,40 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5985</v>
+        <v>0.5989</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5985</v>
+        <v>0.5989</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5985</v>
+        <v>0.5989</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5985</v>
+        <v>0.5989</v>
       </c>
       <c r="F132" t="n">
-        <v>985.9228000000001</v>
+        <v>866.8827</v>
       </c>
       <c r="G132" t="n">
-        <v>-98804158.24230003</v>
+        <v>-146304011.0262</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,68 +5404,84 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5959</v>
+        <v>0.5978</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5959</v>
+        <v>0.5978</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5959</v>
+        <v>0.5978</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5959</v>
+        <v>0.5978</v>
       </c>
       <c r="F133" t="n">
-        <v>350947.9934</v>
+        <v>1177593.6486</v>
       </c>
       <c r="G133" t="n">
-        <v>-99155106.23570003</v>
+        <v>-147481604.6748</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.5989</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5978</v>
+        <v>0.5988</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5985</v>
+        <v>0.5988</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5985</v>
+        <v>0.5988</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5978</v>
+        <v>0.5988</v>
       </c>
       <c r="F134" t="n">
-        <v>1556322.4254</v>
+        <v>838.8914</v>
       </c>
       <c r="G134" t="n">
-        <v>-97598783.81030002</v>
+        <v>-147480765.7834</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,33 +5490,40 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5982</v>
+        <v>0.591</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5982</v>
+        <v>0.591</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5982</v>
+        <v>0.591</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5982</v>
+        <v>0.591</v>
       </c>
       <c r="F135" t="n">
-        <v>4443646.828</v>
+        <v>2323187.0136</v>
       </c>
       <c r="G135" t="n">
-        <v>-102042430.6383</v>
+        <v>-149803952.797</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,173 +5532,216 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5969</v>
+        <v>0.6015</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5969</v>
+        <v>0.6015</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5969</v>
+        <v>0.6015</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5969</v>
+        <v>0.6015</v>
       </c>
       <c r="F136" t="n">
-        <v>3255059.8407</v>
+        <v>837.5155</v>
       </c>
       <c r="G136" t="n">
-        <v>-105297490.479</v>
+        <v>-149803115.2815</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5985</v>
+        <v>0.5865</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5985</v>
+        <v>0.5845</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5985</v>
+        <v>0.5865</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5985</v>
+        <v>0.5845</v>
       </c>
       <c r="F137" t="n">
-        <v>1835.653</v>
+        <v>223620.278</v>
       </c>
       <c r="G137" t="n">
-        <v>-105295654.826</v>
+        <v>-150026735.5595</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5978</v>
+        <v>0.6014</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5978</v>
+        <v>0.6014</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5978</v>
+        <v>0.6014</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5978</v>
+        <v>0.5856</v>
       </c>
       <c r="F138" t="n">
-        <v>2681436.0519</v>
+        <v>35238.9888</v>
       </c>
       <c r="G138" t="n">
-        <v>-107977090.8779</v>
+        <v>-149991496.5707</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.5845</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5985</v>
+        <v>0.6014</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5985</v>
+        <v>0.5955</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5985</v>
+        <v>0.6014</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5985</v>
+        <v>0.5955</v>
       </c>
       <c r="F139" t="n">
-        <v>876.9204</v>
+        <v>2485956.0861</v>
       </c>
       <c r="G139" t="n">
-        <v>-107976213.9575</v>
+        <v>-152477452.6568</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5985</v>
+        <v>0.599</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6015</v>
+        <v>0.599</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6015</v>
+        <v>0.599</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5985</v>
+        <v>0.599</v>
       </c>
       <c r="F140" t="n">
-        <v>333155.4742</v>
+        <v>1878462.7461</v>
       </c>
       <c r="G140" t="n">
-        <v>-107643058.4833</v>
+        <v>-150598989.9107</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,33 +5750,40 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5985</v>
+        <v>0.6014</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6015</v>
+        <v>0.6014</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6015</v>
+        <v>0.6014</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5979</v>
+        <v>0.6014</v>
       </c>
       <c r="F141" t="n">
-        <v>3775642.3244</v>
+        <v>839.6642000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-107643058.4833</v>
+        <v>-150598150.2465</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,68 +5792,84 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1821112.8563</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-152419263.1028</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
         <v>0.6014</v>
       </c>
-      <c r="C142" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="F142" t="n">
-        <v>4535817.7884</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-112178876.2717</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6015</v>
+        <v>0.6014</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6015</v>
+        <v>0.6014</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6015</v>
+        <v>0.6014</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6015</v>
+        <v>0.6014</v>
       </c>
       <c r="F143" t="n">
-        <v>82917.3947</v>
+        <v>842.0651</v>
       </c>
       <c r="G143" t="n">
-        <v>-112095958.877</v>
+        <v>-152418421.0377</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
@@ -5392,37 +5878,42 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0.6014</v>
+        <v>0.5905</v>
       </c>
       <c r="K143" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L143" t="inlineStr"/>
+        <v>0.5998</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6009</v>
+        <v>0.5879</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6009</v>
+        <v>0.5879</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6009</v>
+        <v>0.5879</v>
       </c>
       <c r="E144" t="n">
-        <v>0.6009</v>
+        <v>0.5879</v>
       </c>
       <c r="F144" t="n">
-        <v>1663257.0985</v>
+        <v>2236069.6651</v>
       </c>
       <c r="G144" t="n">
-        <v>-113759215.9755</v>
+        <v>-154654490.7028</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,134 +5923,135 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6009</v>
+        <v>0.6012</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6009</v>
+        <v>0.6012</v>
       </c>
       <c r="D145" t="n">
-        <v>0.6009</v>
+        <v>0.6012</v>
       </c>
       <c r="E145" t="n">
-        <v>0.6009</v>
+        <v>0.6012</v>
       </c>
       <c r="F145" t="n">
-        <v>3420483.8338</v>
+        <v>843.8176999999999</v>
       </c>
       <c r="G145" t="n">
-        <v>-113759215.9755</v>
+        <v>-154653646.8851</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.5879</v>
+      </c>
       <c r="K145" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.6015</v>
+        <v>0.6012</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6</v>
+        <v>0.6012</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6015</v>
+        <v>0.6012</v>
       </c>
       <c r="E146" t="n">
-        <v>0.6</v>
+        <v>0.6012</v>
       </c>
       <c r="F146" t="n">
-        <v>1082664.9543</v>
+        <v>899.2173</v>
       </c>
       <c r="G146" t="n">
-        <v>-114841880.9298</v>
+        <v>-154653646.8851</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.6009</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5992</v>
+        <v>0.5871</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6</v>
+        <v>0.601</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6</v>
+        <v>0.601</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5992</v>
+        <v>0.5871</v>
       </c>
       <c r="F147" t="n">
-        <v>1755023.8127</v>
+        <v>3232871.4486</v>
       </c>
       <c r="G147" t="n">
-        <v>-114841880.9298</v>
+        <v>-157886518.3337</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.6</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5569,28 +6061,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6015</v>
+        <v>0.601</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6015</v>
+        <v>0.601</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6015</v>
+        <v>0.601</v>
       </c>
       <c r="E148" t="n">
-        <v>0.6015</v>
+        <v>0.601</v>
       </c>
       <c r="F148" t="n">
-        <v>837.8795</v>
+        <v>934.3189</v>
       </c>
       <c r="G148" t="n">
-        <v>-114841043.0503</v>
+        <v>-157886518.3337</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5600,7 +6093,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5610,40 +6103,39 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5979</v>
+        <v>0.5877</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5979</v>
+        <v>0.5877</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5979</v>
+        <v>0.5877</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5979</v>
+        <v>0.5877</v>
       </c>
       <c r="F149" t="n">
-        <v>812332.3272000001</v>
+        <v>4981299.5139</v>
       </c>
       <c r="G149" t="n">
-        <v>-115653375.3775</v>
+        <v>-162867817.8476</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.6015</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5653,28 +6145,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.596</v>
+        <v>0.6006</v>
       </c>
       <c r="C150" t="n">
-        <v>0.596</v>
+        <v>0.6006</v>
       </c>
       <c r="D150" t="n">
-        <v>0.596</v>
+        <v>0.6006</v>
       </c>
       <c r="E150" t="n">
-        <v>0.596</v>
+        <v>0.6006</v>
       </c>
       <c r="F150" t="n">
-        <v>493685.6064</v>
+        <v>843.812</v>
       </c>
       <c r="G150" t="n">
-        <v>-116147060.9839</v>
+        <v>-162866974.0356</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5684,7 +6177,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5694,28 +6187,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5959</v>
+        <v>0.5869</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5959</v>
+        <v>0.5861</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5959</v>
+        <v>0.5869</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5959</v>
+        <v>0.5861</v>
       </c>
       <c r="F151" t="n">
-        <v>833942.7362</v>
+        <v>292409.5461</v>
       </c>
       <c r="G151" t="n">
-        <v>-116981003.7201</v>
+        <v>-163159383.5817</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5725,7 +6219,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5735,40 +6229,39 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5998</v>
+        <v>0.6005</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5998</v>
+        <v>0.6005</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5998</v>
+        <v>0.6005</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5998</v>
+        <v>0.6005</v>
       </c>
       <c r="F152" t="n">
-        <v>3453177.4135</v>
+        <v>875.3881</v>
       </c>
       <c r="G152" t="n">
-        <v>-113527826.3066</v>
+        <v>-163158508.1936</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.5959</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5778,40 +6271,39 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.596</v>
+        <v>0.5934</v>
       </c>
       <c r="C153" t="n">
-        <v>0.596</v>
+        <v>0.5934</v>
       </c>
       <c r="D153" t="n">
-        <v>0.596</v>
+        <v>0.5934</v>
       </c>
       <c r="E153" t="n">
-        <v>0.596</v>
+        <v>0.5934</v>
       </c>
       <c r="F153" t="n">
-        <v>2301961.0801</v>
+        <v>1039974.5534</v>
       </c>
       <c r="G153" t="n">
-        <v>-115829787.3867</v>
+        <v>-164198482.747</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.5998</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -5821,40 +6313,39 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5959</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5959</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5959</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5959</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="F154" t="n">
-        <v>4085.7241</v>
+        <v>861.0397</v>
       </c>
       <c r="G154" t="n">
-        <v>-115833873.1108</v>
+        <v>-164197621.7073</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.596</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -5864,40 +6355,39 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5978</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5978</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5978</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5978</v>
       </c>
       <c r="F155" t="n">
-        <v>1179220.9731</v>
+        <v>92156.811</v>
       </c>
       <c r="G155" t="n">
-        <v>-114654652.1377</v>
+        <v>-164289778.5183</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.5959</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -5907,28 +6397,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6015</v>
+        <v>0.5991</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5986</v>
+        <v>0.5998</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6015</v>
+        <v>0.5998</v>
       </c>
       <c r="E156" t="n">
-        <v>0.5986</v>
+        <v>0.5991</v>
       </c>
       <c r="F156" t="n">
-        <v>2063161.3145</v>
+        <v>1727.3553</v>
       </c>
       <c r="G156" t="n">
-        <v>-116717813.4522</v>
+        <v>-164288051.163</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5938,7 +6429,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -5948,28 +6439,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6015</v>
+        <v>0.5968</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6015</v>
+        <v>0.5968</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6015</v>
+        <v>0.5968</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6015</v>
+        <v>0.5968</v>
       </c>
       <c r="F157" t="n">
-        <v>843.4731</v>
+        <v>1667635.1055</v>
       </c>
       <c r="G157" t="n">
-        <v>-116716969.9791</v>
+        <v>-165955686.2685</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5979,7 +6471,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -5989,28 +6481,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5981</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5981</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5981</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5981</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F158" t="n">
-        <v>3745815.692</v>
+        <v>1206679.7515</v>
       </c>
       <c r="G158" t="n">
-        <v>-120462785.6711</v>
+        <v>-167162366.02</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6020,7 +6513,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6030,28 +6523,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5998</v>
+        <v>0.5866</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5998</v>
+        <v>0.5866</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5998</v>
+        <v>0.5866</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5998</v>
+        <v>0.5866</v>
       </c>
       <c r="F159" t="n">
-        <v>2238221.2122</v>
+        <v>2131017.0198</v>
       </c>
       <c r="G159" t="n">
-        <v>-118224564.4589</v>
+        <v>-169293383.0398</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6061,7 +6555,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6071,38 +6565,41 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.599</v>
+        <v>0.5976</v>
       </c>
       <c r="C160" t="n">
-        <v>0.599</v>
+        <v>0.5984</v>
       </c>
       <c r="D160" t="n">
-        <v>0.599</v>
+        <v>0.5984</v>
       </c>
       <c r="E160" t="n">
-        <v>0.599</v>
+        <v>0.5976</v>
       </c>
       <c r="F160" t="n">
-        <v>3772219.1517</v>
+        <v>3891805.2261</v>
       </c>
       <c r="G160" t="n">
-        <v>-121996783.6106</v>
+        <v>-165401577.8137</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.5866</v>
+      </c>
       <c r="K160" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6112,38 +6609,41 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5998</v>
+        <v>0.5984</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5998</v>
+        <v>0.5985</v>
       </c>
       <c r="D161" t="n">
-        <v>0.5998</v>
+        <v>0.5985</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5998</v>
+        <v>0.5984</v>
       </c>
       <c r="F161" t="n">
-        <v>848.2827</v>
+        <v>418879.4679</v>
       </c>
       <c r="G161" t="n">
-        <v>-121995935.3279</v>
+        <v>-164982698.3458</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K161" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6153,28 +6653,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5996</v>
+        <v>0.5897</v>
       </c>
       <c r="C162" t="n">
-        <v>0.5996</v>
+        <v>0.5897</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5996</v>
+        <v>0.5897</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5996</v>
+        <v>0.5897</v>
       </c>
       <c r="F162" t="n">
-        <v>4947290.0528</v>
+        <v>2650066.2309</v>
       </c>
       <c r="G162" t="n">
-        <v>-126943225.3807</v>
+        <v>-167632764.5767</v>
       </c>
       <c r="H162" t="n">
         <v>1</v>
@@ -6183,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>0.5998</v>
+        <v>0.5985</v>
       </c>
       <c r="K162" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6196,28 +6697,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5959</v>
+        <v>0.5985</v>
       </c>
       <c r="C163" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.5985</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5959</v>
+        <v>0.5985</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.5985</v>
       </c>
       <c r="F163" t="n">
-        <v>7789722.2236</v>
+        <v>871.7212</v>
       </c>
       <c r="G163" t="n">
-        <v>-134732947.6043</v>
+        <v>-167631892.8555</v>
       </c>
       <c r="H163" t="n">
         <v>1</v>
@@ -6226,10 +6728,10 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0.5996</v>
+        <v>0.5897</v>
       </c>
       <c r="K163" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6239,28 +6741,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5864</v>
+        <v>0.5876</v>
       </c>
       <c r="C164" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.5876</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5997</v>
+        <v>0.5876</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.5876</v>
       </c>
       <c r="F164" t="n">
-        <v>4569979.6272</v>
+        <v>42718.3992</v>
       </c>
       <c r="G164" t="n">
-        <v>-134732947.6043</v>
+        <v>-167674611.2547</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
@@ -6269,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.5985</v>
       </c>
       <c r="K164" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6282,40 +6785,39 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5997</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>0.5997</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5997</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5997</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>855.0393</v>
+        <v>4907713.4048</v>
       </c>
       <c r="G165" t="n">
-        <v>-134732092.565</v>
+        <v>-162766897.8499</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.5842000000000001</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>0.6014</v>
+        <v>0.5998</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6325,1734 +6827,7 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.5855</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.5855</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.5855</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.5855</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2183574.0268</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-136915666.5918</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="F167" t="n">
-        <v>861.5144</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-136914805.0774</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.5897</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.5897</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.5897</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.5897</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3128474.2837</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-140043279.3611</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.5994</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.5994</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.5994</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.5994</v>
-      </c>
-      <c r="F169" t="n">
-        <v>838.2172</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-140042441.1439</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="F170" t="n">
-        <v>493184.2918</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-140535625.4357</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.5994</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.5862000000000001</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.5862000000000001</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.5862000000000001</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.5862000000000001</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1562940.3407</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-142098565.7764</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="F172" t="n">
-        <v>841.1766</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-142097724.5998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.5911</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.5911</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.5911</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.5911</v>
-      </c>
-      <c r="F173" t="n">
-        <v>4207153.3091</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-146304877.9089</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.5989</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.5989</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.5989</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.5989</v>
-      </c>
-      <c r="F174" t="n">
-        <v>866.8827</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-146304011.0262</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1177593.6486</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-147481604.6748</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.5988</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.5988</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.5988</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.5988</v>
-      </c>
-      <c r="F176" t="n">
-        <v>838.8914</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-147480765.7834</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2323187.0136</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-149803952.797</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="F178" t="n">
-        <v>837.5155</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-149803115.2815</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.5865</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.5845</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.5865</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.5845</v>
-      </c>
-      <c r="F179" t="n">
-        <v>223620.278</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-150026735.5595</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.5856</v>
-      </c>
-      <c r="F180" t="n">
-        <v>35238.9888</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-149991496.5707</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2485956.0861</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-152477452.6568</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1878462.7461</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-150598989.9107</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="F183" t="n">
-        <v>839.6642000000001</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-150598150.2465</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1821112.8563</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-152419263.1028</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="F185" t="n">
-        <v>842.0651</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-152418421.0377</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.5879</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.5879</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.5879</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.5879</v>
-      </c>
-      <c r="F186" t="n">
-        <v>2236069.6651</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-154654490.7028</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="F187" t="n">
-        <v>843.8176999999999</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-154653646.8851</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="F188" t="n">
-        <v>899.2173</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-154653646.8851</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.5871</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.5871</v>
-      </c>
-      <c r="F189" t="n">
-        <v>3232871.4486</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-157886518.3337</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="F190" t="n">
-        <v>934.3189</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-157886518.3337</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="F191" t="n">
-        <v>4981299.5139</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-162867817.8476</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0.6006</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.6006</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.6006</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.6006</v>
-      </c>
-      <c r="F192" t="n">
-        <v>843.812</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-162866974.0356</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.5861</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.5861</v>
-      </c>
-      <c r="F193" t="n">
-        <v>292409.5461</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-163159383.5817</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.6005</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.6005</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.6005</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0.6005</v>
-      </c>
-      <c r="F194" t="n">
-        <v>875.3881</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-163158508.1936</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.5934</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.5934</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.5934</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.5934</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1039974.5534</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-164198482.747</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="F196" t="n">
-        <v>861.0397</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-164197621.7073</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="F197" t="n">
-        <v>92156.811</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-164289778.5183</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.5991</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0.5991</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1727.3553</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-164288051.163</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>0.5968</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.5968</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.5968</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0.5968</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1667635.1055</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-165955686.2685</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1206679.7515</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-167162366.02</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0.5866</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.5866</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.5866</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0.5866</v>
-      </c>
-      <c r="F201" t="n">
-        <v>2131017.0198</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-169293383.0398</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="F202" t="n">
-        <v>3891805.2261</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-165401577.8137</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="F203" t="n">
-        <v>418879.4679</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-164982698.3458</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>0.5897</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.5897</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.5897</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.5897</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2650066.2309</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-167632764.5767</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="F205" t="n">
-        <v>871.7212</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-167631892.8555</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="F206" t="n">
-        <v>42718.3992</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-167674611.2547</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="F207" t="n">
-        <v>4907713.4048</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-162766897.8499</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
+      <c r="N165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest APIS.xlsx
+++ b/BackTest/2020-01-16 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N236"/>
+  <dimension ref="A1:M236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>895139.9241999993</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>3629031.447699999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>127168.8452999992</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>2686777.578199999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>1692027.7437</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>5675719.730899999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>1271537.473599999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>2933924.238799999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>2934773.4268</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>1752016.7249</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>3340795.9484</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-4588515.1008</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>135131.2065000003</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-5052527.6159</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-5104228.524599999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-2082591.117399999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-2082591.117399999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-5926167.8341</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-7093934.351</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-4469898.408799999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-25502543.5491</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,18 +5632,19 @@
         <v>-98495144.16510004</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0.5985</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.5985</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5671,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5710,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5749,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5782,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5815,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5848,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5881,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6396,18 +5912,19 @@
         <v>-107977090.8779</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0.5985</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.5985</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5951,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5990,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6504,18 +6027,23 @@
         <v>-107643058.4833</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>0.6015</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6540,18 +6068,23 @@
         <v>-112178876.2717</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>0.6015</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6111,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6612,18 +6148,21 @@
         <v>-113759215.9755</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6189,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6684,18 +6226,23 @@
         <v>-114841880.9298</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>0.6009</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6720,18 +6267,23 @@
         <v>-114841880.9298</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6756,18 +6308,23 @@
         <v>-114841043.0503</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6792,18 +6349,23 @@
         <v>-115653375.3775</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>0.6015</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6392,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6864,22 +6429,23 @@
         <v>-116981003.7201</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="J180" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>0.5985</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6904,26 +6470,23 @@
         <v>-113527826.3066</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>0.5959</v>
       </c>
       <c r="J181" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>0.5985</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6948,26 +6511,23 @@
         <v>-115829787.3867</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>0.5998</v>
       </c>
       <c r="J182" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="L182" t="inlineStr">
+        <v>0.5985</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6992,22 +6552,23 @@
         <v>-115833873.1108</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="J183" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>0.5985</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7034,24 +6595,19 @@
       <c r="H184" t="n">
         <v>1</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="L184" t="inlineStr">
+        <v>0.5985</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7078,22 +6634,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7120,16 +6673,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7156,16 +6712,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7192,16 +6751,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7228,16 +6790,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7262,22 +6827,23 @@
         <v>-121995935.3279</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>0.599</v>
       </c>
       <c r="J190" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>0.5985</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7304,24 +6870,19 @@
       <c r="H191" t="n">
         <v>1</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>0.5985</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7348,24 +6909,19 @@
       <c r="H192" t="n">
         <v>1</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>0.5985</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7392,24 +6948,19 @@
       <c r="H193" t="n">
         <v>1</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L193" t="inlineStr">
+        <v>0.5985</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7434,26 +6985,23 @@
         <v>-134732092.565</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="J194" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L194" t="inlineStr">
+        <v>0.5985</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7480,22 +7028,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7520,24 +7065,23 @@
         <v>-136914805.0774</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L196" t="inlineStr">
+        <v>0.5855</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7564,22 +7108,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7606,22 +7147,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7648,22 +7186,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7690,22 +7225,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7732,22 +7264,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7774,22 +7303,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7816,22 +7342,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7858,22 +7381,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7900,22 +7420,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7942,22 +7459,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7984,22 +7498,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8026,22 +7537,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8068,22 +7576,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8110,22 +7615,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8152,22 +7654,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8194,22 +7693,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8236,22 +7732,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8278,22 +7771,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8320,22 +7810,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8362,22 +7849,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8404,22 +7888,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8446,22 +7927,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8488,22 +7966,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8530,22 +8005,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8572,22 +8044,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8614,22 +8083,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8656,22 +8122,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8698,22 +8161,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8740,22 +8200,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8782,22 +8239,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8824,22 +8278,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8866,22 +8317,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8908,22 +8356,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8950,22 +8395,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8992,22 +8434,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9034,22 +8473,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9076,22 +8512,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9118,22 +8551,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9160,22 +8590,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9202,24 +8629,21 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest APIS.xlsx
+++ b/BackTest/2020-01-16 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>3468506.9023</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3468506.9023</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>895139.9241999993</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3629031.447699999</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>127168.8452999992</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2686777.578199999</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1692027.7437</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2030751.831199999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5675719.730899999</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1271537.473599999</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2933924.238799999</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2934773.4268</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1752016.7249</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3340795.9484</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4588515.1008</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>135131.2065000003</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5052527.6159</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-691027.7039999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5239066.2891</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2568614.9635</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5104228.524599999</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2082591.117399999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2082591.117399999</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2082591.117399999</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5926167.8341</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7093934.351</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4333406.5029</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-4469898.408799999</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6471536.6209</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-19403982.1689</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-16531955.2985</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-20806737.6105</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-25502543.5491</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-30253408.1111</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-30507313.89469999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-27536334.15459999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-27536334.15459999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-25727174.62459999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -5632,14 +5632,10 @@
         <v>-98495144.16510004</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.5985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5672,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5711,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5912,14 +5896,10 @@
         <v>-107977090.8779</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0.5985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
@@ -5952,972 +5932,864 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>0.5985</v>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="C169" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="F169" t="n">
+        <v>333155.4742</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-107643058.4833</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.5985</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3775642.3244</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-107643058.4833</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4535817.7884</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-112178876.2717</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="F172" t="n">
+        <v>82917.3947</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-112095958.877</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1663257.0985</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-113759215.9755</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.6009</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3420483.8338</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-113759215.9755</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1082664.9543</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-114841880.9298</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1755023.8127</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-114841880.9298</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="F177" t="n">
+        <v>837.8795</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-114841043.0503</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="F178" t="n">
+        <v>812332.3272000001</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-115653375.3775</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="F179" t="n">
+        <v>493685.6064</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-116147060.9839</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F180" t="n">
+        <v>833942.7362</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-116981003.7201</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3453177.4135</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-113527826.3066</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="C169" t="n">
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2301961.0801</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-115829787.3867</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4085.7241</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-115833873.1108</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1179220.9731</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-114654652.1377</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
         <v>0.6015</v>
       </c>
-      <c r="D169" t="n">
+      <c r="C185" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="D185" t="n">
         <v>0.6015</v>
       </c>
-      <c r="E169" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="F169" t="n">
-        <v>333155.4742</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-107643058.4833</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K169" t="inlineStr">
+      <c r="E185" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2063161.3145</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-116717813.4522</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="F186" t="n">
+        <v>843.4731</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-116716969.9791</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.5981</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.5981</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.5981</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.5981</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3745815.692</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-120462785.6711</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2238221.2122</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-118224564.4589</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3772219.1517</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-121996783.6106</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="F190" t="n">
+        <v>848.2827</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-121995935.3279</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4947290.0528</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-126943225.3807</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7789722.2236</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-134732947.6043</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="F170" t="n">
-        <v>3775642.3244</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-107643058.4833</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="F171" t="n">
-        <v>4535817.7884</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-112178876.2717</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="F172" t="n">
-        <v>82917.3947</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-112095958.877</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1663257.0985</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-113759215.9755</v>
-      </c>
-      <c r="H173" t="n">
-        <v>3</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="F174" t="n">
-        <v>3420483.8338</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-113759215.9755</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1082664.9543</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-114841880.9298</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0.6009</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1755023.8127</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-114841880.9298</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="F177" t="n">
-        <v>837.8795</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-114841043.0503</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="F178" t="n">
-        <v>812332.3272000001</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-115653375.3775</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="F179" t="n">
-        <v>493685.6064</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-116147060.9839</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F180" t="n">
-        <v>833942.7362</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-116981003.7201</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="F181" t="n">
-        <v>3453177.4135</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-113527826.3066</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2301961.0801</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-115829787.3867</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F183" t="n">
-        <v>4085.7241</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-115833873.1108</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.6012999999999999</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.6012999999999999</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.6012999999999999</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.6012999999999999</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1179220.9731</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-114654652.1377</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2063161.3145</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-116717813.4522</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="F186" t="n">
-        <v>843.4731</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-116716969.9791</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.5981</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.5981</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.5981</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.5981</v>
-      </c>
-      <c r="F187" t="n">
-        <v>3745815.692</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-120462785.6711</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2238221.2122</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-118224564.4589</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="F189" t="n">
-        <v>3772219.1517</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-121996783.6106</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="F190" t="n">
-        <v>848.2827</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-121995935.3279</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="F191" t="n">
-        <v>4947290.0528</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-126943225.3807</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="F192" t="n">
-        <v>7789722.2236</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-134732947.6043</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>0.5985</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6948,9 +6820,11 @@
       <c r="H193" t="n">
         <v>1</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>0.5842000000000001</v>
+      </c>
       <c r="J193" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6985,13 +6859,13 @@
         <v>-134732092.565</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0.5842000000000001</v>
       </c>
       <c r="J194" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7030,7 +6904,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7065,13 +6939,13 @@
         <v>-136914805.0774</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0.5855</v>
       </c>
       <c r="J196" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7110,7 +6984,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7149,7 +7023,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7188,7 +7062,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7227,7 +7101,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7262,11 +7136,13 @@
         <v>-142097724.5998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.5862000000000001</v>
+      </c>
       <c r="J201" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7305,7 +7181,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7344,7 +7220,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7383,7 +7259,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7422,7 +7298,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7461,7 +7337,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7496,11 +7372,13 @@
         <v>-149803115.2815</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.591</v>
+      </c>
       <c r="J207" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7539,7 +7417,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7578,7 +7456,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7617,7 +7495,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7656,7 +7534,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7695,7 +7573,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7734,7 +7612,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7773,7 +7651,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7812,7 +7690,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7851,7 +7729,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7890,7 +7768,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7929,7 +7807,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7968,7 +7846,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8007,7 +7885,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8046,7 +7924,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8085,7 +7963,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8124,7 +8002,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8163,7 +8041,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8202,7 +8080,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8241,7 +8119,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8280,7 +8158,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8319,7 +8197,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8358,7 +8236,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8397,7 +8275,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8436,7 +8314,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8475,7 +8353,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8514,7 +8392,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8553,7 +8431,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8592,7 +8470,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8631,7 +8509,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>0.5985</v>
+        <v>0.5998</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8644,6 +8522,6 @@
       <c r="M236" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest APIS.xlsx
+++ b/BackTest/2020-01-16 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>3468506.9023</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3468506.9023</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>895139.9241999993</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3629031.447699999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>127168.8452999992</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2686777.578199999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1692027.7437</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2030751.831199999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5675719.730899999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1271537.473599999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2933924.238799999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2934773.4268</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1752016.7249</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3340795.9484</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4588515.1008</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>135131.2065000003</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5052527.6159</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-691027.7039999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5239066.2891</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2568614.9635</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5104228.524599999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2082591.117399999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2082591.117399999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2082591.117399999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5926167.8341</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7093934.351</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4333406.5029</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-4469898.408799999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6471536.6209</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-19403982.1689</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-16531955.2985</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-20806737.6105</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-25502543.5491</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-30253408.1111</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-30507313.89469999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-27536334.15459999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-27536334.15459999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-25727174.62459999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-64661540.815</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-64993664.9004</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-64992748.5531</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-69576973.9206</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-69578427.89919999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-69577573.5871</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-73715743.4483</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -6325,14 +6325,10 @@
         <v>-116981003.7201</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6362,19 +6358,11 @@
         <v>-113527826.3066</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6406,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6442,14 +6424,10 @@
         <v>-115833873.1108</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
@@ -6479,19 +6457,11 @@
         <v>-114654652.1377</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6523,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6658,14 +6622,10 @@
         <v>-121996783.6106</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0.5998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
@@ -6695,263 +6655,227 @@
         <v>-121995935.3279</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4947290.0528</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-126943225.3807</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7789722.2236</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-134732947.6043</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.5864</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.5997</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4569979.6272</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-134732947.6043</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.5997</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.5997</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.5997</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.5997</v>
+      </c>
+      <c r="F194" t="n">
+        <v>855.0393</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-134732092.565</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.5855</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.5855</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.5855</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.5855</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2183574.0268</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-136915666.5918</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
         <v>0.5996</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C196" t="n">
         <v>0.5996</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D196" t="n">
         <v>0.5996</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E196" t="n">
         <v>0.5996</v>
       </c>
-      <c r="F191" t="n">
-        <v>4947290.0528</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-126943225.3807</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K191" t="inlineStr">
+      <c r="F196" t="n">
+        <v>861.5144</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-136914805.0774</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.5855</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="F192" t="n">
-        <v>7789722.2236</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-134732947.6043</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.5864</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="F193" t="n">
-        <v>4569979.6272</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-134732947.6043</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="J193" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="F194" t="n">
-        <v>855.0393</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-134732092.565</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.5855</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.5855</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.5855</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.5855</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2183574.0268</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-136915666.5918</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="F196" t="n">
-        <v>861.5144</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-136914805.0774</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0.5855</v>
-      </c>
-      <c r="J196" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6980,17 +6904,15 @@
         <v>-140043279.3611</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.5996</v>
+      </c>
       <c r="J197" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.5996</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7023,11 +6945,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>0.5998</v>
+        <v>0.5996</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -7062,11 +6984,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>0.5998</v>
+        <v>0.5996</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L199" t="n">
@@ -7100,14 +7022,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7142,13 +7058,9 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="J201" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.5862000000000001</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7181,11 +7093,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>0.5998</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L202" t="n">
@@ -7220,11 +7132,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>0.5998</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7258,14 +7170,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7297,14 +7203,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7336,14 +7236,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7372,19 +7266,11 @@
         <v>-149803115.2815</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7416,14 +7302,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7455,14 +7335,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7494,14 +7368,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7533,14 +7401,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7572,14 +7434,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7611,14 +7467,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7650,14 +7500,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7689,14 +7533,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7728,14 +7566,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7767,14 +7599,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7806,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7845,14 +7665,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7884,14 +7698,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7923,14 +7731,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7962,14 +7764,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8001,14 +7797,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8040,14 +7830,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8079,14 +7863,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8118,14 +7896,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8157,14 +7929,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8196,14 +7962,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8235,14 +7995,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8274,14 +8028,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8313,14 +8061,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8352,14 +8094,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8391,14 +8127,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8430,14 +8160,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8469,14 +8193,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8508,20 +8226,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
       <c r="M236" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest APIS.xlsx
+++ b/BackTest/2020-01-16 BackTest APIS.xlsx
@@ -517,7 +517,7 @@
         <v>3468506.9023</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3468506.9023</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4273715.032199999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>895139.9241999993</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3629031.447699999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2686777.578199999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1692027.7437</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5675719.730899999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1271537.473599999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2933924.238799999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2934773.4268</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1752016.7249</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1305200.434600001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3340795.9484</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4588515.1008</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>135131.2065000003</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-64661540.815</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-64993664.9004</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-64992748.5531</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-69576973.9206</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-69578427.89919999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-69577573.5871</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-73715743.4483</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -6325,10 +6325,14 @@
         <v>-116981003.7201</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.596</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6358,11 +6362,19 @@
         <v>-113527826.3066</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6403,19 @@
         <v>-115829787.3867</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,10 +6444,14 @@
         <v>-115833873.1108</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.596</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
@@ -6457,11 +6481,19 @@
         <v>-114654652.1377</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6525,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6589,10 +6627,14 @@
         <v>-118224564.4589</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.5981</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.5981</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6622,11 +6664,19 @@
         <v>-121996783.6106</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.5981</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6705,19 @@
         <v>-121995935.3279</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.5981</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,10 +6746,14 @@
         <v>-126943225.3807</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.5998</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
@@ -6721,11 +6783,19 @@
         <v>-134732947.6043</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6824,19 @@
         <v>-134732947.6043</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6793,9 +6871,13 @@
         <v>0.5842000000000001</v>
       </c>
       <c r="J194" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+        <v>0.5998</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,15 +6906,17 @@
         <v>-136915666.5918</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.5997</v>
+      </c>
       <c r="J195" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.5998</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
@@ -6869,11 +6953,11 @@
         <v>0.5855</v>
       </c>
       <c r="J196" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.5998</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -6910,9 +6994,13 @@
         <v>0.5996</v>
       </c>
       <c r="J197" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+        <v>0.5998</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6941,15 +7029,17 @@
         <v>-140042441.1439</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.5897</v>
+      </c>
       <c r="J198" t="n">
-        <v>0.5996</v>
+        <v>0.5998</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -6980,15 +7070,17 @@
         <v>-140535625.4357</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.5994</v>
+      </c>
       <c r="J199" t="n">
-        <v>0.5996</v>
+        <v>0.5998</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L199" t="n">
@@ -7019,11 +7111,19 @@
         <v>-142098565.7764</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7058,9 +7158,13 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="J201" t="n">
-        <v>0.5862000000000001</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+        <v>0.5998</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7089,15 +7193,17 @@
         <v>-146304877.9089</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.599</v>
+      </c>
       <c r="J202" t="n">
-        <v>0.5862000000000001</v>
+        <v>0.5998</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L202" t="n">
@@ -7128,15 +7234,17 @@
         <v>-146304011.0262</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.5911</v>
+      </c>
       <c r="J203" t="n">
-        <v>0.5862000000000001</v>
+        <v>0.5998</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7170,8 +7278,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7200,11 +7314,19 @@
         <v>-147480765.7834</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7233,11 +7355,19 @@
         <v>-149803952.797</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.5988</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7266,11 +7396,19 @@
         <v>-149803115.2815</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7302,8 +7440,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7335,8 +7479,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7368,8 +7518,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7401,8 +7557,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7434,8 +7596,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7467,8 +7635,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7500,8 +7674,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7533,8 +7713,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7566,8 +7752,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7599,8 +7791,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7632,8 +7830,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7665,8 +7869,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7698,8 +7908,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7731,8 +7947,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7764,8 +7986,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7797,8 +8025,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7830,8 +8064,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7863,8 +8103,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7896,8 +8142,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7929,8 +8181,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7962,8 +8220,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7995,8 +8259,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8028,8 +8298,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8061,8 +8337,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8094,8 +8376,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8127,8 +8415,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8160,8 +8454,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8193,8 +8493,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8226,8 +8532,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest APIS.xlsx
+++ b/BackTest/2020-01-16 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1951939.8225</v>
       </c>
       <c r="G2" t="n">
-        <v>4608815.7616</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>116683.3975</v>
       </c>
       <c r="G3" t="n">
-        <v>4492132.3641</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1023625.4618</v>
       </c>
       <c r="G4" t="n">
-        <v>3468506.9023</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1950097.4962</v>
       </c>
       <c r="G5" t="n">
-        <v>3468506.9023</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>805208.1299000001</v>
       </c>
       <c r="G6" t="n">
-        <v>4273715.032199999</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3586485.1897</v>
       </c>
       <c r="G7" t="n">
-        <v>4273715.032199999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>3378575.108</v>
       </c>
       <c r="G8" t="n">
-        <v>895139.9241999993</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2733891.5235</v>
       </c>
       <c r="G9" t="n">
-        <v>3629031.447699999</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3501862.6024</v>
       </c>
       <c r="G10" t="n">
-        <v>127168.8452999992</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2559608.7329</v>
       </c>
       <c r="G11" t="n">
-        <v>2686777.578199999</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>994749.8345</v>
       </c>
       <c r="G12" t="n">
-        <v>1692027.7437</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>338724.0875</v>
       </c>
       <c r="G13" t="n">
-        <v>2030751.831199999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3644967.8997</v>
       </c>
       <c r="G14" t="n">
-        <v>5675719.730899999</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>4404182.2573</v>
       </c>
       <c r="G15" t="n">
-        <v>1271537.473599999</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1662386.7652</v>
       </c>
       <c r="G16" t="n">
-        <v>2933924.238799999</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>849.188</v>
       </c>
       <c r="G17" t="n">
-        <v>2934773.4268</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1182756.7019</v>
       </c>
       <c r="G18" t="n">
-        <v>1752016.7249</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3057217.1595</v>
       </c>
       <c r="G19" t="n">
-        <v>-1305200.434600001</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1482249.8119</v>
       </c>
       <c r="G20" t="n">
-        <v>-1305200.434600001</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>4645996.383</v>
       </c>
       <c r="G21" t="n">
-        <v>3340795.9484</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>7929311.0492</v>
       </c>
       <c r="G22" t="n">
-        <v>-4588515.1008</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>4723646.3073</v>
       </c>
       <c r="G23" t="n">
-        <v>135131.2065000003</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>5187658.8224</v>
       </c>
       <c r="G24" t="n">
-        <v>-5052527.6159</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>4361499.9119</v>
       </c>
       <c r="G25" t="n">
-        <v>-691027.7039999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>4548038.5851</v>
       </c>
       <c r="G26" t="n">
-        <v>-5239066.2891</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2670451.3256</v>
       </c>
       <c r="G27" t="n">
-        <v>-2568614.9635</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2535613.5611</v>
       </c>
       <c r="G28" t="n">
-        <v>-5104228.524599999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>3021637.4072</v>
       </c>
       <c r="G29" t="n">
-        <v>-2082591.117399999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1633174.6163</v>
       </c>
       <c r="G30" t="n">
-        <v>-2082591.117399999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>791048.7725</v>
       </c>
       <c r="G31" t="n">
-        <v>-2082591.117399999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3843576.7167</v>
       </c>
       <c r="G32" t="n">
-        <v>-5926167.8341</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1167766.5169</v>
       </c>
       <c r="G33" t="n">
-        <v>-7093934.351</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2760527.8481</v>
       </c>
       <c r="G34" t="n">
-        <v>-4333406.5029</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>136491.9059</v>
       </c>
       <c r="G35" t="n">
-        <v>-4469898.408799999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2001638.2121</v>
       </c>
       <c r="G36" t="n">
-        <v>-6471536.6209</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>12932445.548</v>
       </c>
       <c r="G37" t="n">
-        <v>-19403982.1689</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2872026.8704</v>
       </c>
       <c r="G38" t="n">
-        <v>-16531955.2985</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>4274782.312</v>
       </c>
       <c r="G39" t="n">
-        <v>-20806737.6105</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>4695805.9386</v>
       </c>
       <c r="G40" t="n">
-        <v>-25502543.5491</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4750864.562</v>
       </c>
       <c r="G41" t="n">
-        <v>-30253408.1111</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>253905.7836</v>
       </c>
       <c r="G42" t="n">
-        <v>-30507313.89469999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>718931.554</v>
       </c>
       <c r="G43" t="n">
-        <v>-30507313.89469999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2987346.3522</v>
       </c>
       <c r="G44" t="n">
-        <v>-27519967.54249999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>16366.6121</v>
       </c>
       <c r="G45" t="n">
-        <v>-27536334.15459999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>226234.3675</v>
       </c>
       <c r="G46" t="n">
-        <v>-27536334.15459999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1809159.53</v>
       </c>
       <c r="G47" t="n">
-        <v>-25727174.62459999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1046319.5946</v>
       </c>
       <c r="G48" t="n">
-        <v>-26773494.21919999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2325096.8803</v>
       </c>
       <c r="G49" t="n">
-        <v>-29098591.09949999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>263966.6848</v>
       </c>
       <c r="G50" t="n">
-        <v>-29362557.78429999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1832927.3907</v>
       </c>
       <c r="G51" t="n">
-        <v>-27529630.39359999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>830.3376</v>
       </c>
       <c r="G52" t="n">
-        <v>-27528800.05599999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>507626.1602</v>
       </c>
       <c r="G53" t="n">
-        <v>-28036426.21619999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>2472035.1128</v>
       </c>
       <c r="G54" t="n">
-        <v>-25564391.10339999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2638512.0236</v>
       </c>
       <c r="G55" t="n">
-        <v>-22925879.07979999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3895449.503</v>
       </c>
       <c r="G56" t="n">
-        <v>-26821328.58279999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1011.7545</v>
       </c>
       <c r="G57" t="n">
-        <v>-26820316.82829999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>4179968.6574</v>
       </c>
       <c r="G58" t="n">
-        <v>-31000285.48569999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>3653191.8874</v>
       </c>
       <c r="G59" t="n">
-        <v>-34653477.37309999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1018.8778</v>
       </c>
       <c r="G60" t="n">
-        <v>-34652458.49529999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>3478880.3634</v>
       </c>
       <c r="G61" t="n">
-        <v>-38131338.85869998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>2130918.0736</v>
       </c>
       <c r="G62" t="n">
-        <v>-40262256.93229999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1434889.8208</v>
       </c>
       <c r="G63" t="n">
-        <v>-38827367.11149999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>4461313.1996</v>
       </c>
       <c r="G64" t="n">
-        <v>-43288680.31109999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>836.0245</v>
       </c>
       <c r="G65" t="n">
-        <v>-43287844.28659999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>4302450.8671</v>
       </c>
       <c r="G66" t="n">
-        <v>-47590295.15369999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>845.3138</v>
       </c>
       <c r="G67" t="n">
-        <v>-47589449.83989999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1073318.651</v>
       </c>
       <c r="G68" t="n">
-        <v>-48662768.49089999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>857.8049</v>
       </c>
       <c r="G69" t="n">
-        <v>-48661910.686</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1066538.3717</v>
       </c>
       <c r="G70" t="n">
-        <v>-48661910.686</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1826830.3309</v>
       </c>
       <c r="G71" t="n">
-        <v>-50488741.0169</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>10809.8567</v>
       </c>
       <c r="G72" t="n">
-        <v>-50499550.8736</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>4403278.984</v>
       </c>
       <c r="G73" t="n">
-        <v>-46096271.8896</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1001488.3649</v>
       </c>
       <c r="G74" t="n">
-        <v>-45094783.5247</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>2800500.6447</v>
       </c>
       <c r="G75" t="n">
-        <v>-47895284.1694</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>894.8635</v>
       </c>
       <c r="G76" t="n">
-        <v>-47894389.3059</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3208721.359</v>
       </c>
       <c r="G77" t="n">
-        <v>-51103110.6649</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>66102.3055</v>
       </c>
       <c r="G78" t="n">
-        <v>-51037008.3594</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>24850.89463220676</v>
       </c>
       <c r="G79" t="n">
-        <v>-51037008.3594</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>2664697.5465</v>
       </c>
       <c r="G80" t="n">
-        <v>-53701705.90589999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>50000</v>
       </c>
       <c r="G81" t="n">
-        <v>-53651705.90589999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>187991.4362</v>
       </c>
       <c r="G82" t="n">
-        <v>-53651705.90589999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>3637533.286</v>
       </c>
       <c r="G83" t="n">
-        <v>-57289239.19189999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1465648.4618</v>
       </c>
       <c r="G84" t="n">
-        <v>-58754887.65369999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>167064.1306</v>
       </c>
       <c r="G85" t="n">
-        <v>-58754887.65369999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>4154478.5258</v>
       </c>
       <c r="G86" t="n">
-        <v>-54600409.1279</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>851.977</v>
       </c>
       <c r="G87" t="n">
-        <v>-54599557.1509</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>2839417.0845</v>
       </c>
       <c r="G88" t="n">
-        <v>-54599557.1509</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>2554851.0254</v>
       </c>
       <c r="G89" t="n">
-        <v>-57154408.1763</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>841.2178</v>
       </c>
       <c r="G90" t="n">
-        <v>-57153566.9585</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>4182325.0718</v>
       </c>
       <c r="G91" t="n">
-        <v>-61335892.0303</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>843.624</v>
       </c>
       <c r="G92" t="n">
-        <v>-61335048.4063</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>3326492.4087</v>
       </c>
       <c r="G93" t="n">
-        <v>-64661540.815</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>332124.0854</v>
       </c>
       <c r="G94" t="n">
-        <v>-64993664.9004</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>916.3473</v>
       </c>
       <c r="G95" t="n">
-        <v>-64992748.5531</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>4584225.3675</v>
       </c>
       <c r="G96" t="n">
-        <v>-69576973.9206</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1453.9786</v>
       </c>
       <c r="G97" t="n">
-        <v>-69578427.89919999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>854.3121</v>
       </c>
       <c r="G98" t="n">
-        <v>-69577573.5871</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>4138169.8612</v>
       </c>
       <c r="G99" t="n">
-        <v>-73715743.4483</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>10000</v>
       </c>
       <c r="G100" t="n">
-        <v>-73705743.4483</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>19969.4183</v>
       </c>
       <c r="G101" t="n">
-        <v>-73725712.86660001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1872875.1669</v>
       </c>
       <c r="G102" t="n">
-        <v>-71852837.69970001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1007.1525</v>
       </c>
       <c r="G103" t="n">
-        <v>-71853844.85220002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1777997.1967</v>
       </c>
       <c r="G104" t="n">
-        <v>-71853844.85220002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2589999.3507</v>
       </c>
       <c r="G105" t="n">
-        <v>-69263845.50150001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>4547128.1511</v>
       </c>
       <c r="G106" t="n">
-        <v>-64716717.35040001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>849.3680000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-64715867.98240001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>901594.4983</v>
       </c>
       <c r="G108" t="n">
-        <v>-65617462.48070001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>14477285.0921</v>
       </c>
       <c r="G109" t="n">
-        <v>-80094747.57280001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1783758.6996</v>
       </c>
       <c r="G110" t="n">
-        <v>-78310988.87320001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>100000</v>
       </c>
       <c r="G111" t="n">
-        <v>-78410988.87320001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1000000</v>
       </c>
       <c r="G112" t="n">
-        <v>-78410988.87320001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>835.7199000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>-78410153.15330002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>1408524.6913</v>
       </c>
       <c r="G114" t="n">
-        <v>-79818677.84460002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>4055242.2568</v>
       </c>
       <c r="G115" t="n">
-        <v>-83873920.10140002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>848.8763</v>
       </c>
       <c r="G116" t="n">
-        <v>-83873071.22510001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>2941291.866</v>
       </c>
       <c r="G117" t="n">
-        <v>-86814363.09110001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>2028200.7166</v>
       </c>
       <c r="G118" t="n">
-        <v>-84786162.37450001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>3712151.5459</v>
       </c>
       <c r="G119" t="n">
-        <v>-81074010.8286</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>11454.7454</v>
       </c>
       <c r="G120" t="n">
-        <v>-81085465.574</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>2343020.643</v>
       </c>
       <c r="G121" t="n">
-        <v>-78742444.93099999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>1608.9014</v>
       </c>
       <c r="G122" t="n">
-        <v>-78742444.93099999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>1163698.4708</v>
       </c>
       <c r="G123" t="n">
-        <v>-77578746.4602</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>3278220.2031</v>
       </c>
       <c r="G124" t="n">
-        <v>-80856966.66329999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>875.5586</v>
       </c>
       <c r="G125" t="n">
-        <v>-80856091.1047</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>4543156.2247</v>
       </c>
       <c r="G126" t="n">
-        <v>-85399247.3294</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>1621603.6924</v>
       </c>
       <c r="G127" t="n">
-        <v>-87020851.0218</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>1092.0274</v>
       </c>
       <c r="G128" t="n">
-        <v>-87019758.99439999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>2477.8388</v>
       </c>
       <c r="G129" t="n">
-        <v>-87022236.83319999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>1919685.2707</v>
       </c>
       <c r="G130" t="n">
-        <v>-85102551.5625</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>2476.9347</v>
       </c>
       <c r="G131" t="n">
-        <v>-85100074.6278</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1405765.7961</v>
       </c>
       <c r="G132" t="n">
-        <v>-86505840.42390001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1000</v>
       </c>
       <c r="G133" t="n">
-        <v>-86504840.42390001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>1542026.759</v>
       </c>
       <c r="G134" t="n">
-        <v>-88046867.18290001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>7733822.1306</v>
       </c>
       <c r="G135" t="n">
-        <v>-95780689.31350002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1022518.204</v>
       </c>
       <c r="G136" t="n">
-        <v>-94758171.10950002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>314011.798</v>
       </c>
       <c r="G137" t="n">
-        <v>-94444159.31150003</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>5447017.5723</v>
       </c>
       <c r="G138" t="n">
-        <v>-94444159.31150003</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>146499.0772</v>
       </c>
       <c r="G139" t="n">
-        <v>-94444159.31150003</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>3811061.9483</v>
       </c>
       <c r="G140" t="n">
-        <v>-90633097.36320002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>962907.7173</v>
       </c>
       <c r="G141" t="n">
-        <v>-90633097.36320002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>4515350.099</v>
       </c>
       <c r="G142" t="n">
-        <v>-95148447.46220003</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>1979117.8763</v>
       </c>
       <c r="G143" t="n">
-        <v>-97127565.33850004</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>15783.9051</v>
       </c>
       <c r="G144" t="n">
-        <v>-97111781.43340003</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>4609238.7936</v>
       </c>
       <c r="G145" t="n">
-        <v>-101721020.227</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>60539.5063</v>
       </c>
       <c r="G146" t="n">
-        <v>-101781559.7333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>527151.7965000001</v>
       </c>
       <c r="G147" t="n">
-        <v>-101254407.9368</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>1537414.4326</v>
       </c>
       <c r="G148" t="n">
-        <v>-102791822.3694</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>16322.0526</v>
       </c>
       <c r="G149" t="n">
-        <v>-102775500.3168</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>282615.1394</v>
       </c>
       <c r="G150" t="n">
-        <v>-102492885.1774</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>717384.8606</v>
       </c>
       <c r="G151" t="n">
-        <v>-102492885.1774</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>2674108.3528</v>
       </c>
       <c r="G152" t="n">
-        <v>-105166993.5302</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>4713434.9661</v>
       </c>
       <c r="G153" t="n">
-        <v>-100453558.5641</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>1000000</v>
       </c>
       <c r="G154" t="n">
-        <v>-101453558.5641</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>4445916.4445</v>
       </c>
       <c r="G155" t="n">
-        <v>-97007642.11960003</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>866.357</v>
       </c>
       <c r="G156" t="n">
-        <v>-97006775.76260003</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>4359808.7666</v>
       </c>
       <c r="G157" t="n">
-        <v>-97006775.76260003</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>1050849.0678</v>
       </c>
       <c r="G158" t="n">
-        <v>-97006775.76260003</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>1488368.4025</v>
       </c>
       <c r="G159" t="n">
-        <v>-98495144.16510004</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>310000</v>
       </c>
       <c r="G160" t="n">
-        <v>-98805144.16510004</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>985.9228000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>-98804158.24230003</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>350947.9934</v>
       </c>
       <c r="G162" t="n">
-        <v>-99155106.23570003</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>1556322.4254</v>
       </c>
       <c r="G163" t="n">
-        <v>-97598783.81030002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>4443646.828</v>
       </c>
       <c r="G164" t="n">
-        <v>-102042430.6383</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>3255059.8407</v>
       </c>
       <c r="G165" t="n">
-        <v>-105297490.479</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>1835.653</v>
       </c>
       <c r="G166" t="n">
-        <v>-105295654.826</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>2681436.0519</v>
       </c>
       <c r="G167" t="n">
-        <v>-107977090.8779</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>876.9204</v>
       </c>
       <c r="G168" t="n">
-        <v>-107976213.9575</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>333155.4742</v>
       </c>
       <c r="G169" t="n">
-        <v>-107643058.4833</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>3775642.3244</v>
       </c>
       <c r="G170" t="n">
-        <v>-107643058.4833</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>4535817.7884</v>
       </c>
       <c r="G171" t="n">
-        <v>-112178876.2717</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>82917.3947</v>
       </c>
       <c r="G172" t="n">
-        <v>-112095958.877</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>1663257.0985</v>
       </c>
       <c r="G173" t="n">
-        <v>-113759215.9755</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>3420483.8338</v>
       </c>
       <c r="G174" t="n">
-        <v>-113759215.9755</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>1082664.9543</v>
       </c>
       <c r="G175" t="n">
-        <v>-114841880.9298</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>1755023.8127</v>
       </c>
       <c r="G176" t="n">
-        <v>-114841880.9298</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>837.8795</v>
       </c>
       <c r="G177" t="n">
-        <v>-114841043.0503</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>812332.3272000001</v>
       </c>
       <c r="G178" t="n">
-        <v>-115653375.3775</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>493685.6064</v>
       </c>
       <c r="G179" t="n">
-        <v>-116147060.9839</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,22 +5783,19 @@
         <v>833942.7362</v>
       </c>
       <c r="G180" t="n">
-        <v>-116981003.7201</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0.596</v>
       </c>
       <c r="I180" t="n">
         <v>0.596</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6359,26 +5817,23 @@
         <v>3453177.4135</v>
       </c>
       <c r="G181" t="n">
-        <v>-113527826.3066</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0.5959</v>
       </c>
       <c r="I181" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="J181" t="n">
         <v>0.596</v>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="J181" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6400,26 +5855,23 @@
         <v>2301961.0801</v>
       </c>
       <c r="G182" t="n">
-        <v>-115829787.3867</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0.5998</v>
       </c>
       <c r="I182" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="J182" t="n">
         <v>0.596</v>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="J182" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6441,22 +5893,19 @@
         <v>4085.7241</v>
       </c>
       <c r="G183" t="n">
-        <v>-115833873.1108</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0.596</v>
       </c>
       <c r="I183" t="n">
         <v>0.596</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6478,26 +5927,23 @@
         <v>1179220.9731</v>
       </c>
       <c r="G184" t="n">
-        <v>-114654652.1377</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0.5959</v>
       </c>
       <c r="I184" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="J184" t="n">
         <v>0.596</v>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6519,24 +5965,21 @@
         <v>2063161.3145</v>
       </c>
       <c r="G185" t="n">
-        <v>-116717813.4522</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
         <v>0.596</v>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6558,18 +6001,15 @@
         <v>843.4731</v>
       </c>
       <c r="G186" t="n">
-        <v>-116716969.9791</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6591,18 +6031,15 @@
         <v>3745815.692</v>
       </c>
       <c r="G187" t="n">
-        <v>-120462785.6711</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6624,22 +6061,15 @@
         <v>2238221.2122</v>
       </c>
       <c r="G188" t="n">
-        <v>-118224564.4589</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0.5981</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0.5981</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6661,104 +6091,95 @@
         <v>3772219.1517</v>
       </c>
       <c r="G189" t="n">
-        <v>-121996783.6106</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0.5998</v>
       </c>
       <c r="I189" t="n">
         <v>0.5998</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.5981</v>
-      </c>
-      <c r="K189" t="inlineStr">
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="F190" t="n">
+        <v>848.2827</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.5998</v>
+      </c>
+      <c r="J190" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4947290.0528</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="n">
         <v>0.5998</v>
       </c>
-      <c r="C190" t="n">
+      <c r="I191" t="n">
         <v>0.5998</v>
       </c>
-      <c r="D190" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="F190" t="n">
-        <v>848.2827</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-121995935.3279</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0.5981</v>
-      </c>
-      <c r="K190" t="inlineStr">
+      <c r="J191" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="F191" t="n">
-        <v>4947290.0528</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-126943225.3807</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6780,26 +6201,23 @@
         <v>7789722.2236</v>
       </c>
       <c r="G192" t="n">
-        <v>-134732947.6043</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0.5996</v>
       </c>
       <c r="I192" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="J192" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6821,26 +6239,23 @@
         <v>4569979.6272</v>
       </c>
       <c r="G193" t="n">
-        <v>-134732947.6043</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="J193" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6862,26 +6277,23 @@
         <v>855.0393</v>
       </c>
       <c r="G194" t="n">
-        <v>-134732092.565</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="I194" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="J194" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6903,26 +6315,21 @@
         <v>2183574.0268</v>
       </c>
       <c r="G195" t="n">
-        <v>-136915666.5918</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>0.5997</v>
-      </c>
-      <c r="J195" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K195" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6944,26 +6351,21 @@
         <v>861.5144</v>
       </c>
       <c r="G196" t="n">
-        <v>-136914805.0774</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>0.5855</v>
-      </c>
-      <c r="J196" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6985,26 +6387,21 @@
         <v>3128474.2837</v>
       </c>
       <c r="G197" t="n">
-        <v>-140043279.3611</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="J197" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7026,26 +6423,21 @@
         <v>838.2172</v>
       </c>
       <c r="G198" t="n">
-        <v>-140042441.1439</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>0.5897</v>
-      </c>
-      <c r="J198" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K198" t="inlineStr">
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7067,26 +6459,21 @@
         <v>493184.2918</v>
       </c>
       <c r="G199" t="n">
-        <v>-140535625.4357</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>0.5994</v>
-      </c>
-      <c r="J199" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K199" t="inlineStr">
+      <c r="J199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7108,26 +6495,21 @@
         <v>1562940.3407</v>
       </c>
       <c r="G200" t="n">
-        <v>-142098565.7764</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="J200" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K200" t="inlineStr">
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7149,26 +6531,21 @@
         <v>841.1766</v>
       </c>
       <c r="G201" t="n">
-        <v>-142097724.5998</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>0.5862000000000001</v>
-      </c>
-      <c r="J201" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7190,26 +6567,21 @@
         <v>4207153.3091</v>
       </c>
       <c r="G202" t="n">
-        <v>-146304877.9089</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="J202" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K202" t="inlineStr">
+      <c r="J202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7231,26 +6603,21 @@
         <v>866.8827</v>
       </c>
       <c r="G203" t="n">
-        <v>-146304011.0262</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>0.5911</v>
-      </c>
-      <c r="J203" t="n">
         <v>0.5998</v>
       </c>
-      <c r="K203" t="inlineStr">
+      <c r="J203" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>0.9934994998332778</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7272,24 +6639,15 @@
         <v>1177593.6486</v>
       </c>
       <c r="G204" t="n">
-        <v>-147481604.6748</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7311,26 +6669,15 @@
         <v>838.8914</v>
       </c>
       <c r="G205" t="n">
-        <v>-147480765.7834</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0.5978</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7352,26 +6699,15 @@
         <v>2323187.0136</v>
       </c>
       <c r="G206" t="n">
-        <v>-149803952.797</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0.5988</v>
-      </c>
-      <c r="J206" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7393,26 +6729,15 @@
         <v>837.5155</v>
       </c>
       <c r="G207" t="n">
-        <v>-149803115.2815</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7434,24 +6759,15 @@
         <v>223620.278</v>
       </c>
       <c r="G208" t="n">
-        <v>-150026735.5595</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7473,24 +6789,15 @@
         <v>35238.9888</v>
       </c>
       <c r="G209" t="n">
-        <v>-149991496.5707</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7512,24 +6819,15 @@
         <v>2485956.0861</v>
       </c>
       <c r="G210" t="n">
-        <v>-152477452.6568</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7551,24 +6849,15 @@
         <v>1878462.7461</v>
       </c>
       <c r="G211" t="n">
-        <v>-150598989.9107</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7590,24 +6879,15 @@
         <v>839.6642000000001</v>
       </c>
       <c r="G212" t="n">
-        <v>-150598150.2465</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7629,24 +6909,15 @@
         <v>1821112.8563</v>
       </c>
       <c r="G213" t="n">
-        <v>-152419263.1028</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7668,24 +6939,15 @@
         <v>842.0651</v>
       </c>
       <c r="G214" t="n">
-        <v>-152418421.0377</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7707,24 +6969,15 @@
         <v>2236069.6651</v>
       </c>
       <c r="G215" t="n">
-        <v>-154654490.7028</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7746,24 +6999,15 @@
         <v>843.8176999999999</v>
       </c>
       <c r="G216" t="n">
-        <v>-154653646.8851</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7785,24 +7029,15 @@
         <v>899.2173</v>
       </c>
       <c r="G217" t="n">
-        <v>-154653646.8851</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7824,24 +7059,15 @@
         <v>3232871.4486</v>
       </c>
       <c r="G218" t="n">
-        <v>-157886518.3337</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7863,24 +7089,15 @@
         <v>934.3189</v>
       </c>
       <c r="G219" t="n">
-        <v>-157886518.3337</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7902,24 +7119,15 @@
         <v>4981299.5139</v>
       </c>
       <c r="G220" t="n">
-        <v>-162867817.8476</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7941,24 +7149,15 @@
         <v>843.812</v>
       </c>
       <c r="G221" t="n">
-        <v>-162866974.0356</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7980,24 +7179,15 @@
         <v>292409.5461</v>
       </c>
       <c r="G222" t="n">
-        <v>-163159383.5817</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8019,24 +7209,15 @@
         <v>875.3881</v>
       </c>
       <c r="G223" t="n">
-        <v>-163158508.1936</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8058,24 +7239,15 @@
         <v>1039974.5534</v>
       </c>
       <c r="G224" t="n">
-        <v>-164198482.747</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8097,24 +7269,15 @@
         <v>861.0397</v>
       </c>
       <c r="G225" t="n">
-        <v>-164197621.7073</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8136,24 +7299,15 @@
         <v>92156.811</v>
       </c>
       <c r="G226" t="n">
-        <v>-164289778.5183</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8175,24 +7329,15 @@
         <v>1727.3553</v>
       </c>
       <c r="G227" t="n">
-        <v>-164288051.163</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8214,24 +7359,15 @@
         <v>1667635.1055</v>
       </c>
       <c r="G228" t="n">
-        <v>-165955686.2685</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8253,24 +7389,15 @@
         <v>1206679.7515</v>
       </c>
       <c r="G229" t="n">
-        <v>-167162366.02</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8292,24 +7419,15 @@
         <v>2131017.0198</v>
       </c>
       <c r="G230" t="n">
-        <v>-169293383.0398</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8331,24 +7449,15 @@
         <v>3891805.2261</v>
       </c>
       <c r="G231" t="n">
-        <v>-165401577.8137</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8370,24 +7479,15 @@
         <v>418879.4679</v>
       </c>
       <c r="G232" t="n">
-        <v>-164982698.3458</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8409,24 +7509,15 @@
         <v>2650066.2309</v>
       </c>
       <c r="G233" t="n">
-        <v>-167632764.5767</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8448,24 +7539,15 @@
         <v>871.7212</v>
       </c>
       <c r="G234" t="n">
-        <v>-167631892.8555</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8487,24 +7569,15 @@
         <v>42718.3992</v>
       </c>
       <c r="G235" t="n">
-        <v>-167674611.2547</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8526,24 +7599,15 @@
         <v>4907713.4048</v>
       </c>
       <c r="G236" t="n">
-        <v>-162766897.8499</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>0.5998</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
